--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B6A70-EFAC-4959-807A-E45CE338C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157E4F1-39EE-4F6F-81EF-13CE7FF2CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2085" windowWidth="29040" windowHeight="15720" xr2:uid="{3A48C461-4B72-4E36-93AB-861AF30FD55D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{3A48C461-4B72-4E36-93AB-861AF30FD55D}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_data_years" sheetId="2" r:id="rId1"/>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>fis_b_bmsy</t>
-  </si>
-  <si>
-    <t>fis_meancatch</t>
   </si>
   <si>
     <t>fp_art_hb</t>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>np_sust</t>
+  </si>
+  <si>
+    <t>fis_landings</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:H653"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD96"/>
+      <selection activeCell="A97" sqref="A97:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B98">
         <v>2018</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>2020</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B101">
         <v>2021</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102">
         <v>2012</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103">
         <v>2013</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104">
         <v>2014</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105">
         <v>2015</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106">
         <v>2016</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107">
         <v>2017</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108">
         <v>2018</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109">
         <v>2019</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <v>2012</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>2013</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B112">
         <v>2014</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113">
         <v>2015</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>2016</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>2017</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>2018</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>2019</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B118">
         <v>2012</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119">
         <v>2013</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B120">
         <v>2014</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B121">
         <v>2015</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B122">
         <v>2016</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B123">
         <v>2017</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B124">
         <v>2018</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126">
         <v>2012</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127">
         <v>2013</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128">
         <v>2014</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129">
         <v>2015</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130">
         <v>2016</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>2017</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132">
         <v>2018</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133">
         <v>2019</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134">
         <v>2012</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B135">
         <v>2013</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B136">
         <v>2014</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137">
         <v>2015</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B138">
         <v>2016</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B139">
         <v>2017</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140">
         <v>2018</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141">
         <v>2019</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B142">
         <v>2012</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B143">
         <v>2013</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B144">
         <v>2014</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145">
         <v>2015</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B146">
         <v>2016</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B147">
         <v>2017</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B148">
         <v>2018</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B149">
         <v>2019</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B150">
         <v>2012</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B151">
         <v>2013</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B152">
         <v>2014</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B153">
         <v>2015</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B154">
         <v>2016</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B155">
         <v>2017</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B156">
         <v>2018</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B157">
         <v>2019</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158">
         <v>2012</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159">
         <v>2013</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160">
         <v>2014</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161">
         <v>2015</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162">
         <v>2016</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B163">
         <v>2017</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164">
         <v>2018</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165">
         <v>2019</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B166">
         <v>2012</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B167">
         <v>2013</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B168">
         <v>2014</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B169">
         <v>2015</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B170">
         <v>2016</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B171">
         <v>2017</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B172">
         <v>2018</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>2019</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B174">
         <v>2000</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B175">
         <v>2001</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B176">
         <v>2002</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B177">
         <v>2003</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B178">
         <v>2004</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B179">
         <v>2005</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B180">
         <v>2006</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B181">
         <v>2007</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B182">
         <v>2008</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B183">
         <v>2009</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B184">
         <v>2010</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B185">
         <v>2011</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B186">
         <v>2012</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B187">
         <v>2013</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B188">
         <v>2014</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B189">
         <v>2015</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B190">
         <v>2016</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B191">
         <v>2017</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B192">
         <v>2018</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B193">
         <v>2019</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B194">
         <v>2012</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B195">
         <v>2013</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B196">
         <v>2014</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B197">
         <v>2015</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B198">
         <v>2016</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B199">
         <v>2017</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200">
         <v>2018</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B201">
         <v>2019</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B202">
         <v>2012</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B203">
         <v>2013</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B204">
         <v>2014</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B205">
         <v>2015</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B206">
         <v>2016</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207">
         <v>2017</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B208">
         <v>2018</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209">
         <v>2019</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B210">
         <v>2012</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B211">
         <v>2013</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B212">
         <v>2014</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B213">
         <v>2015</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B214">
         <v>2016</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B215">
         <v>2017</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B216">
         <v>2018</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B217">
         <v>2019</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B218">
         <v>2012</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B219">
         <v>2013</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B220">
         <v>2014</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B221">
         <v>2015</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B222">
         <v>2016</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B223">
         <v>2017</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B224">
         <v>2018</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B225">
         <v>2019</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B226">
         <v>2012</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B227">
         <v>2013</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B228">
         <v>2014</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B229">
         <v>2015</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B230">
         <v>2016</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B231">
         <v>2017</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B232">
         <v>2018</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B233">
         <v>2019</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B234">
         <v>2000</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B235">
         <v>2001</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B236">
         <v>2002</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B237">
         <v>2003</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B238">
         <v>2004</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B239">
         <v>2005</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B240">
         <v>2006</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B241">
         <v>2007</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B242">
         <v>2008</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B243">
         <v>2009</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B244">
         <v>2010</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B245">
         <v>2011</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B246">
         <v>2012</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B247">
         <v>2013</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B248">
         <v>2014</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B249">
         <v>2015</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B250">
         <v>2016</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B251">
         <v>2017</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B252">
         <v>2018</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B253">
         <v>2019</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B254">
         <v>2012</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B255">
         <v>2013</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B256">
         <v>2014</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B257">
         <v>2015</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B258">
         <v>2016</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B259">
         <v>2017</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B260">
         <v>2018</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B261">
         <v>2019</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B262">
         <v>2012</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B263">
         <v>2013</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B264">
         <v>2014</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B265">
         <v>2015</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B266">
         <v>2016</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B267">
         <v>2017</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B268">
         <v>2018</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B269">
         <v>2019</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B270">
         <v>2012</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B271">
         <v>2013</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B272">
         <v>2014</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B273">
         <v>2015</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B274">
         <v>2016</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B275">
         <v>2017</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B276">
         <v>2018</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B277">
         <v>2019</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B278">
         <v>2012</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B279">
         <v>2013</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B280">
         <v>2014</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B281">
         <v>2015</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B282">
         <v>2016</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B283">
         <v>2017</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B284">
         <v>2018</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B285">
         <v>2019</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B286">
         <v>2012</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B287">
         <v>2013</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B288">
         <v>2014</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B289">
         <v>2015</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B290">
         <v>2016</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B291">
         <v>2017</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B292">
         <v>2018</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B293">
         <v>2019</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B294">
         <v>2012</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B295">
         <v>2013</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B296">
         <v>2014</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B297">
         <v>2015</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B298">
         <v>2016</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B299">
         <v>2017</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B300">
         <v>2018</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B301">
         <v>2019</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B302">
         <v>2012</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B303">
         <v>2013</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B304">
         <v>2014</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B305">
         <v>2015</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B306">
         <v>2016</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B307">
         <v>2017</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B308">
         <v>2018</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B309">
         <v>2019</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B310">
         <v>2012</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B311">
         <v>2013</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B312">
         <v>2014</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B313">
         <v>2015</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B314">
         <v>2016</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B315">
         <v>2017</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B316">
         <v>2018</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B317">
         <v>2019</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B318">
         <v>2012</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B319">
         <v>2013</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B320">
         <v>2014</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B321">
         <v>2015</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B322">
         <v>2016</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B323">
         <v>2017</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B324">
         <v>2018</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B325">
         <v>2019</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B326">
         <v>2012</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B327">
         <v>2013</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B328">
         <v>2014</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B329">
         <v>2015</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B330">
         <v>2016</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B331">
         <v>2017</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B332">
         <v>2018</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B333">
         <v>2019</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B334">
         <v>2012</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B335">
         <v>2013</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B336">
         <v>2014</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B337">
         <v>2015</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B338">
         <v>2016</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B339">
         <v>2017</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B340">
         <v>2018</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B341">
         <v>2019</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B342">
         <v>2012</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B343">
         <v>2013</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B344">
         <v>2014</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B345">
         <v>2015</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B346">
         <v>2016</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B347">
         <v>2017</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B348">
         <v>2018</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B349">
         <v>2019</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B350">
         <v>2012</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B351">
         <v>2013</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B352">
         <v>2014</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B353">
         <v>2015</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B354">
         <v>2016</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B355">
         <v>2017</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B356">
         <v>2018</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B357">
         <v>2019</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B358">
         <v>2012</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B359">
         <v>2013</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B360">
         <v>2014</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B361">
         <v>2015</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B362">
         <v>2016</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B363">
         <v>2017</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B364">
         <v>2018</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B365">
         <v>2019</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B366">
         <v>2012</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B367">
         <v>2013</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B368">
         <v>2014</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B369">
         <v>2015</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B370">
         <v>2016</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B371">
         <v>2017</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B372">
         <v>2018</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B373">
         <v>2019</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B374">
         <v>2012</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B375">
         <v>2013</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B376">
         <v>2014</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B377">
         <v>2015</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B378">
         <v>2016</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B379">
         <v>2017</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B380">
         <v>2018</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B381">
         <v>2019</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B382">
         <v>2012</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B383">
         <v>2013</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B384">
         <v>2014</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B385">
         <v>2015</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B386">
         <v>2016</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B387">
         <v>2017</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B388">
         <v>2018</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B389">
         <v>2019</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B390">
         <v>1992</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B391">
         <v>1993</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B392">
         <v>1994</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B393">
         <v>1995</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B394">
         <v>1996</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B395">
         <v>1997</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B396">
         <v>1998</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B397">
         <v>1999</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B398">
         <v>2000</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B399">
         <v>2001</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B400">
         <v>2002</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B401">
         <v>2003</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B402">
         <v>2004</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B403">
         <v>2005</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B404">
         <v>2006</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B405">
         <v>2007</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B406">
         <v>2008</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B407">
         <v>2009</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B408">
         <v>2010</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B409">
         <v>2011</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B410">
         <v>2012</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B411">
         <v>2013</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B412">
         <v>2014</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B413">
         <v>2015</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B414">
         <v>2016</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B415">
         <v>2017</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B416">
         <v>2018</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B417">
         <v>2019</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B418">
         <v>2012</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B419">
         <v>2013</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B420">
         <v>2014</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B421">
         <v>2015</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B422">
         <v>2016</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B423">
         <v>2017</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B424">
         <v>2018</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B425">
         <v>2019</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B426">
         <v>2012</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B427">
         <v>2013</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B428">
         <v>2014</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B429">
         <v>2015</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B430">
         <v>2016</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B431">
         <v>2017</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B432">
         <v>2018</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B433">
         <v>2019</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B434">
         <v>2012</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B435">
         <v>2013</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B436">
         <v>2014</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B437">
         <v>2015</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B438">
         <v>2016</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B439">
         <v>2017</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B440">
         <v>2018</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B441">
         <v>2019</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B442">
         <v>2017</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B443">
         <v>2018</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B444">
         <v>2019</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B445">
         <v>2020</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B446">
         <v>2021</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B447">
         <v>2017</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B448">
         <v>2018</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B449">
         <v>2019</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B450">
         <v>2020</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B451">
         <v>2021</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B452">
         <v>2000</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B453">
         <v>2001</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B454">
         <v>2002</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B455">
         <v>2003</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B456">
         <v>2004</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B457">
         <v>2005</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B458">
         <v>2006</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B459">
         <v>2007</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B460">
         <v>2008</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B461">
         <v>2009</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B462">
         <v>2010</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B463">
         <v>2011</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B464">
         <v>2012</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B465">
         <v>2013</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B466">
         <v>2014</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B467">
         <v>2015</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B468">
         <v>2016</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B469">
         <v>2017</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B470">
         <v>2018</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B471">
         <v>2019</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B472">
         <v>2000</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B473">
         <v>2001</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B474">
         <v>2002</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B475">
         <v>2003</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B476">
         <v>2004</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B477">
         <v>2005</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B478">
         <v>2006</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B479">
         <v>2007</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B480">
         <v>2008</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B481">
         <v>2009</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B482">
         <v>2010</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B483">
         <v>2011</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B484">
         <v>2012</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B485">
         <v>2013</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B486">
         <v>2014</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B487">
         <v>2015</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B488">
         <v>2016</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B489">
         <v>2017</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B490">
         <v>2018</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B491">
         <v>2019</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B492">
         <v>2000</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B493">
         <v>2001</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B494">
         <v>2002</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B495">
         <v>2003</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B496">
         <v>2004</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B497">
         <v>2005</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B498">
         <v>2006</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B499">
         <v>2007</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B500">
         <v>2008</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B501">
         <v>2009</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B502">
         <v>2010</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B503">
         <v>2011</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B504">
         <v>2012</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B505">
         <v>2013</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B506">
         <v>2014</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B507">
         <v>2015</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B508">
         <v>2016</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B509">
         <v>2017</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B510">
         <v>2018</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B511">
         <v>2019</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B512">
         <v>2017</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B513">
         <v>2018</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B514">
         <v>2019</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B515">
         <v>2020</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B516">
         <v>2021</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B517">
         <v>2017</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B518">
         <v>2018</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B519">
         <v>2019</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B520">
         <v>2020</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B521">
         <v>2021</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B522">
         <v>2017</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B523">
         <v>2018</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B524">
         <v>2019</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B525">
         <v>2020</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B526">
         <v>2021</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B527" s="1">
         <v>2017</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B528" s="3">
         <v>2018</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B529" s="1">
         <v>2019</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B530" s="3">
         <v>2020</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B531" s="1">
         <v>2021</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B532">
         <v>2012</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B533">
         <v>2013</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B534">
         <v>2014</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B535">
         <v>2015</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B536">
         <v>2016</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B537">
         <v>2017</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B538">
         <v>2018</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B539">
         <v>2019</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B540">
         <v>2012</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B541">
         <v>2013</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B542">
         <v>2014</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B543">
         <v>2015</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B544">
         <v>2016</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B545">
         <v>2017</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B546">
         <v>2018</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B547">
         <v>2019</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B548">
         <v>2012</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B549">
         <v>2013</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B550">
         <v>2014</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B551">
         <v>2015</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B552">
         <v>2016</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B553">
         <v>2017</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B554">
         <v>2018</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B555">
         <v>2019</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B556">
         <v>2012</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B557">
         <v>2013</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B558">
         <v>2014</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B559">
         <v>2015</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B560">
         <v>2016</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B561">
         <v>2017</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B562">
         <v>2018</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B563">
         <v>2019</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B564">
         <v>2012</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B565">
         <v>2013</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B566">
         <v>2014</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B567">
         <v>2015</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B568">
         <v>2016</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B569">
         <v>2017</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B570">
         <v>2018</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B571">
         <v>2019</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B572">
         <v>2012</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B573">
         <v>2013</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B574">
         <v>2014</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B575">
         <v>2015</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B576">
         <v>2016</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B577">
         <v>2017</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B578">
         <v>2018</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B579">
         <v>2019</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B580">
         <v>2012</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B581">
         <v>2013</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B582">
         <v>2014</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B583">
         <v>2015</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B584">
         <v>2016</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B585">
         <v>2017</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B586">
         <v>2018</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B587">
         <v>2019</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B588">
         <v>2012</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B589">
         <v>2013</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B590">
         <v>2014</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B591">
         <v>2015</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B592">
         <v>2016</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B593">
         <v>2017</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B594">
         <v>2018</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B595">
         <v>2019</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B596">
         <v>2012</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B597">
         <v>2013</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B598">
         <v>2014</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B599">
         <v>2015</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B600">
         <v>2016</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B601">
         <v>2017</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B602">
         <v>2018</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B603">
         <v>2019</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B604">
         <v>2012</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B605">
         <v>2013</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B606">
         <v>2014</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B607">
         <v>2015</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B608">
         <v>2016</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B609">
         <v>2017</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B610">
         <v>2018</v>
@@ -7452,7 +7452,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B611">
         <v>2019</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B612">
         <v>2012</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B613">
         <v>2013</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B614">
         <v>2014</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B615">
         <v>2015</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B616">
         <v>2016</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B617">
         <v>2017</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B618">
         <v>2018</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B619">
         <v>2019</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B620">
         <v>2012</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B621">
         <v>2013</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B622">
         <v>2014</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B623">
         <v>2015</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B624">
         <v>2016</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B625">
         <v>2017</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B626">
         <v>2018</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B627">
         <v>2019</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B628">
         <v>2012</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B629">
         <v>2013</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B630">
         <v>2014</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B631">
         <v>2015</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B632">
         <v>2016</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B633">
         <v>2017</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B634">
         <v>2018</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B635">
         <v>2019</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B636">
         <v>2017</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B637">
         <v>2018</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B638">
         <v>2019</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B639">
         <v>2020</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B640">
         <v>2021</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B641">
         <v>2017</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B642">
         <v>2018</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B643">
         <v>2019</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B644">
         <v>2020</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B645">
         <v>2021</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B646">
         <v>2012</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B647">
         <v>2013</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B648">
         <v>2014</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B649">
         <v>2015</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B650">
         <v>2016</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B651">
         <v>2017</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B652">
         <v>2018</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B653">
         <v>2019</v>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157E4F1-39EE-4F6F-81EF-13CE7FF2CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD641075-7A40-460E-A97B-B5C5C49E1DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{3A48C461-4B72-4E36-93AB-861AF30FD55D}"/>
+    <workbookView xWindow="-28920" yWindow="-2085" windowWidth="29040" windowHeight="15720" xr2:uid="{3A48C461-4B72-4E36-93AB-861AF30FD55D}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_data_years" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">scenario_data_years!$A$1:$C$653</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">scenario_data_years!$A$1:$C$602</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="78">
   <si>
     <t>layer_name</t>
   </si>
@@ -214,15 +214,9 @@
     <t>lsp_prot_area_offshore3nm</t>
   </si>
   <si>
-    <t>mar_coastalpopn_inland25mi</t>
-  </si>
-  <si>
     <t>mar_harvest_tonnes</t>
   </si>
   <si>
-    <t>mar_sustainability_score</t>
-  </si>
-  <si>
     <t>np_harvest_product_weight</t>
   </si>
   <si>
@@ -284,6 +278,9 @@
   </si>
   <si>
     <t>fis_landings</t>
+  </si>
+  <si>
+    <t>mar_sustainability</t>
   </si>
 </sst>
 </file>
@@ -362,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -370,6 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A0C80CC-E23D-47E8-921F-3D195267FC78}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C653" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C653" xr:uid="{7A0C80CC-E23D-47E8-921F-3D195267FC78}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A0C80CC-E23D-47E8-921F-3D195267FC78}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C602" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C602" xr:uid="{7A0C80CC-E23D-47E8-921F-3D195267FC78}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1299286F-6580-4FFB-9E20-05C0602E4FB1}" uniqueName="1" name="layer_name" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{60FF0FA1-7FA2-4E85-96B1-6270B106D65B}" uniqueName="2" name="scenario_year" queryTableFieldId="2"/>
@@ -712,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C2A196-73CD-4730-AE9A-5C73B51C1B91}">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1783,7 +1781,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -1794,7 +1792,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>2018</v>
@@ -1805,7 +1803,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -1816,7 +1814,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B100">
         <v>2020</v>
@@ -1827,7 +1825,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101">
         <v>2021</v>
@@ -5691,10 +5689,10 @@
         <v>55</v>
       </c>
       <c r="B452">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C452">
-        <v>1998</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
@@ -5702,10 +5700,10 @@
         <v>55</v>
       </c>
       <c r="B453">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="C453">
-        <v>1999</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
@@ -5713,10 +5711,10 @@
         <v>55</v>
       </c>
       <c r="B454">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="C454">
-        <v>2000</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
@@ -5724,10 +5722,10 @@
         <v>55</v>
       </c>
       <c r="B455">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="C455">
-        <v>2001</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
@@ -5735,10 +5733,10 @@
         <v>55</v>
       </c>
       <c r="B456">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="C456">
-        <v>2002</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
@@ -5746,10 +5744,10 @@
         <v>55</v>
       </c>
       <c r="B457">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="C457">
-        <v>2003</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
@@ -5757,10 +5755,10 @@
         <v>55</v>
       </c>
       <c r="B458">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C458">
-        <v>2004</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
@@ -5768,1386 +5766,1386 @@
         <v>55</v>
       </c>
       <c r="B459">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C459">
-        <v>2005</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A460" t="s">
-        <v>55</v>
+      <c r="A460" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B460">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="C460">
-        <v>2006</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B461">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="C461">
-        <v>2007</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B462">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C462">
-        <v>2008</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B463">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C463">
-        <v>2009</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B464">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C464">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B465">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C465">
-        <v>2011</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B466">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C466">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B467">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C467">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B468">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C468">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B469">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C469">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B470">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C470">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B471">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C471">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B472">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C472">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B473">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="C473">
-        <v>1999</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B474">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="C474">
-        <v>2000</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B475">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="C475">
-        <v>2001</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A476" t="s">
-        <v>56</v>
-      </c>
-      <c r="B476">
-        <v>2004</v>
-      </c>
-      <c r="C476">
-        <v>2002</v>
+      <c r="A476" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B476" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C476" s="2">
+        <v>2021</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A477" t="s">
-        <v>56</v>
-      </c>
-      <c r="B477">
-        <v>2005</v>
-      </c>
-      <c r="C477">
-        <v>2003</v>
+      <c r="A477" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B477" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C477" s="4">
+        <v>2021</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A478" t="s">
-        <v>56</v>
-      </c>
-      <c r="B478">
-        <v>2006</v>
-      </c>
-      <c r="C478">
-        <v>2004</v>
+      <c r="A478" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C478" s="2">
+        <v>2021</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A479" t="s">
-        <v>56</v>
-      </c>
-      <c r="B479">
-        <v>2007</v>
-      </c>
-      <c r="C479">
-        <v>2005</v>
+      <c r="A479" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B479" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C479" s="4">
+        <v>2021</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A480" t="s">
-        <v>56</v>
-      </c>
-      <c r="B480">
-        <v>2008</v>
-      </c>
-      <c r="C480">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A480" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B480" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C480" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B481">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C481">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B482">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C482">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B483">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C483">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B484">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C484">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B485">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C485">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B486">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C486">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B487">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C487">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B488">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C488">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B489">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C489">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B490">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C490">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B491">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C491">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B492">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C492">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B493">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="C493">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B494">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="C494">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B495">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="C495">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+      <c r="F495" s="5"/>
+      <c r="G495" s="1"/>
+      <c r="H495" s="2"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B496">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="C496">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+      <c r="F496" s="6"/>
+      <c r="G496" s="3"/>
+      <c r="H496" s="4"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B497">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="C497">
         <v>2012</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="F497" s="5"/>
+      <c r="G497" s="1"/>
+      <c r="H497" s="2"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B498">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C498">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+      <c r="F498" s="6"/>
+      <c r="G498" s="3"/>
+      <c r="H498" s="4"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B499">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="C499">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+      <c r="F499" s="5"/>
+      <c r="G499" s="1"/>
+      <c r="H499" s="2"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B500">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C500">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B501">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C501">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B502">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C502">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B503">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C503">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B504">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C504">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B505">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C505">
         <v>2012</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B506">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C506">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B507">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C507">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B508">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C508">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B509">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C509">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B510">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C510">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B511">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C511">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B512">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C512">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B513">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C513">
-        <v>2018</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B514">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C514">
-        <v>2019</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B515">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C515">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B516">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C516">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B517">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C517">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B518">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C518">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B519">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C519">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B520">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C520">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B521">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="C521">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B522">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C522">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B523">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C523">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B524">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C524">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B525">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C525">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B526">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C526">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A527" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B527" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C527" s="2">
-        <v>2021</v>
+      <c r="A527" t="s">
+        <v>64</v>
+      </c>
+      <c r="B527">
+        <v>2018</v>
+      </c>
+      <c r="C527">
+        <v>2015</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A528" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B528" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C528" s="4">
-        <v>2021</v>
+      <c r="A528" t="s">
+        <v>64</v>
+      </c>
+      <c r="B528">
+        <v>2019</v>
+      </c>
+      <c r="C528">
+        <v>2015</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A529" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B529" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C529" s="2">
-        <v>2021</v>
+      <c r="A529" t="s">
+        <v>65</v>
+      </c>
+      <c r="B529">
+        <v>2012</v>
+      </c>
+      <c r="C529">
+        <v>2016</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A530" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B530" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C530" s="4">
-        <v>2021</v>
+      <c r="A530" t="s">
+        <v>65</v>
+      </c>
+      <c r="B530">
+        <v>2013</v>
+      </c>
+      <c r="C530">
+        <v>2016</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A531" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B531" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C531" s="2">
-        <v>2021</v>
+      <c r="A531" t="s">
+        <v>65</v>
+      </c>
+      <c r="B531">
+        <v>2014</v>
+      </c>
+      <c r="C531">
+        <v>2016</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B532">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C532">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B533">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C533">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B534">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C534">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B535">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C535">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B536">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C536">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B537">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C537">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B538">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C538">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B539">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C539">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B540">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C540">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B541">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C541">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B542">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C542">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B543">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C543">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B544">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C544">
         <v>2016</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B545">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C545">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B546">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C546">
-        <v>2016</v>
-      </c>
-      <c r="F546" s="5"/>
-      <c r="G546" s="1"/>
-      <c r="H546" s="2"/>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B547">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C547">
-        <v>2016</v>
-      </c>
-      <c r="F547" s="6"/>
-      <c r="G547" s="3"/>
-      <c r="H547" s="4"/>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B548">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C548">
-        <v>2012</v>
-      </c>
-      <c r="F548" s="5"/>
-      <c r="G548" s="1"/>
-      <c r="H548" s="2"/>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B549">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C549">
-        <v>2013</v>
-      </c>
-      <c r="F549" s="6"/>
-      <c r="G549" s="3"/>
-      <c r="H549" s="4"/>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B550">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C550">
-        <v>2014</v>
-      </c>
-      <c r="F550" s="5"/>
-      <c r="G550" s="1"/>
-      <c r="H550" s="2"/>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B551">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C551">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B552">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C552">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B553">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C553">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B554">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C554">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B555">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C555">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B556">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C556">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B557">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C557">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B558">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C558">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B559">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C559">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B560">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C560">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B561">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C561">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B562">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C562">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B563">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C563">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B564">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C564">
-        <v>2009</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B565">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C565">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B566">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C566">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B567">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C567">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B568">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C568">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B569">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C569">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B570">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C570">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B571">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C571">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B572">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C572">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B573">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C573">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B574">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C574">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B575">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C575">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B576">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C576">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B577">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C577">
-        <v>2015</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B578">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C578">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B579">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C579">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B580">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C580">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B581">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C581">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B582">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C582">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B583">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C583">
         <v>2016</v>
@@ -7155,18 +7153,18 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B584">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C584">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B585">
         <v>2017</v>
@@ -7177,7 +7175,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B586">
         <v>2018</v>
@@ -7188,738 +7186,177 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B587">
         <v>2019</v>
       </c>
       <c r="C587">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B588">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C588">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B589">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C589">
-        <v>2011</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B590">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C590">
-        <v>2012</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B591">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C591">
-        <v>2013</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B592">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C592">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B593">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C593">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B594">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C594">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B595">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="C595">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B596">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C596">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B597">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C597">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B598">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C598">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B599">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C599">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B600">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C600">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B601">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C601">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B602">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C602">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A603" t="s">
-        <v>69</v>
-      </c>
-      <c r="B603">
-        <v>2019</v>
-      </c>
-      <c r="C603">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A604" t="s">
-        <v>70</v>
-      </c>
-      <c r="B604">
-        <v>2012</v>
-      </c>
-      <c r="C604">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A605" t="s">
-        <v>70</v>
-      </c>
-      <c r="B605">
-        <v>2013</v>
-      </c>
-      <c r="C605">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A606" t="s">
-        <v>70</v>
-      </c>
-      <c r="B606">
-        <v>2014</v>
-      </c>
-      <c r="C606">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A607" t="s">
-        <v>70</v>
-      </c>
-      <c r="B607">
-        <v>2015</v>
-      </c>
-      <c r="C607">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A608" t="s">
-        <v>70</v>
-      </c>
-      <c r="B608">
-        <v>2016</v>
-      </c>
-      <c r="C608">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A609" t="s">
-        <v>70</v>
-      </c>
-      <c r="B609">
-        <v>2017</v>
-      </c>
-      <c r="C609">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A610" t="s">
-        <v>70</v>
-      </c>
-      <c r="B610">
-        <v>2018</v>
-      </c>
-      <c r="C610">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A611" t="s">
-        <v>70</v>
-      </c>
-      <c r="B611">
-        <v>2019</v>
-      </c>
-      <c r="C611">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A612" t="s">
-        <v>71</v>
-      </c>
-      <c r="B612">
-        <v>2012</v>
-      </c>
-      <c r="C612">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A613" t="s">
-        <v>71</v>
-      </c>
-      <c r="B613">
-        <v>2013</v>
-      </c>
-      <c r="C613">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A614" t="s">
-        <v>71</v>
-      </c>
-      <c r="B614">
-        <v>2014</v>
-      </c>
-      <c r="C614">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A615" t="s">
-        <v>71</v>
-      </c>
-      <c r="B615">
-        <v>2015</v>
-      </c>
-      <c r="C615">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A616" t="s">
-        <v>71</v>
-      </c>
-      <c r="B616">
-        <v>2016</v>
-      </c>
-      <c r="C616">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A617" t="s">
-        <v>71</v>
-      </c>
-      <c r="B617">
-        <v>2017</v>
-      </c>
-      <c r="C617">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A618" t="s">
-        <v>71</v>
-      </c>
-      <c r="B618">
-        <v>2018</v>
-      </c>
-      <c r="C618">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A619" t="s">
-        <v>71</v>
-      </c>
-      <c r="B619">
-        <v>2019</v>
-      </c>
-      <c r="C619">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A620" t="s">
-        <v>72</v>
-      </c>
-      <c r="B620">
-        <v>2012</v>
-      </c>
-      <c r="C620">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A621" t="s">
-        <v>72</v>
-      </c>
-      <c r="B621">
-        <v>2013</v>
-      </c>
-      <c r="C621">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A622" t="s">
-        <v>72</v>
-      </c>
-      <c r="B622">
-        <v>2014</v>
-      </c>
-      <c r="C622">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A623" t="s">
-        <v>72</v>
-      </c>
-      <c r="B623">
-        <v>2015</v>
-      </c>
-      <c r="C623">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A624" t="s">
-        <v>72</v>
-      </c>
-      <c r="B624">
-        <v>2016</v>
-      </c>
-      <c r="C624">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A625" t="s">
-        <v>72</v>
-      </c>
-      <c r="B625">
-        <v>2017</v>
-      </c>
-      <c r="C625">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A626" t="s">
-        <v>72</v>
-      </c>
-      <c r="B626">
-        <v>2018</v>
-      </c>
-      <c r="C626">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A627" t="s">
-        <v>72</v>
-      </c>
-      <c r="B627">
-        <v>2019</v>
-      </c>
-      <c r="C627">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A628" t="s">
-        <v>73</v>
-      </c>
-      <c r="B628">
-        <v>2012</v>
-      </c>
-      <c r="C628">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A629" t="s">
-        <v>73</v>
-      </c>
-      <c r="B629">
-        <v>2013</v>
-      </c>
-      <c r="C629">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A630" t="s">
-        <v>73</v>
-      </c>
-      <c r="B630">
-        <v>2014</v>
-      </c>
-      <c r="C630">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A631" t="s">
-        <v>73</v>
-      </c>
-      <c r="B631">
-        <v>2015</v>
-      </c>
-      <c r="C631">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A632" t="s">
-        <v>73</v>
-      </c>
-      <c r="B632">
-        <v>2016</v>
-      </c>
-      <c r="C632">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A633" t="s">
-        <v>73</v>
-      </c>
-      <c r="B633">
-        <v>2017</v>
-      </c>
-      <c r="C633">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A634" t="s">
-        <v>73</v>
-      </c>
-      <c r="B634">
-        <v>2018</v>
-      </c>
-      <c r="C634">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A635" t="s">
-        <v>73</v>
-      </c>
-      <c r="B635">
-        <v>2019</v>
-      </c>
-      <c r="C635">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A636" t="s">
-        <v>74</v>
-      </c>
-      <c r="B636">
-        <v>2017</v>
-      </c>
-      <c r="C636">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A637" t="s">
-        <v>74</v>
-      </c>
-      <c r="B637">
-        <v>2018</v>
-      </c>
-      <c r="C637">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A638" t="s">
-        <v>74</v>
-      </c>
-      <c r="B638">
-        <v>2019</v>
-      </c>
-      <c r="C638">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A639" t="s">
-        <v>74</v>
-      </c>
-      <c r="B639">
-        <v>2020</v>
-      </c>
-      <c r="C639">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A640" t="s">
-        <v>74</v>
-      </c>
-      <c r="B640">
-        <v>2021</v>
-      </c>
-      <c r="C640">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A641" t="s">
-        <v>75</v>
-      </c>
-      <c r="B641">
-        <v>2017</v>
-      </c>
-      <c r="C641">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A642" t="s">
-        <v>75</v>
-      </c>
-      <c r="B642">
-        <v>2018</v>
-      </c>
-      <c r="C642">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A643" t="s">
-        <v>75</v>
-      </c>
-      <c r="B643">
-        <v>2019</v>
-      </c>
-      <c r="C643">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A644" t="s">
-        <v>75</v>
-      </c>
-      <c r="B644">
-        <v>2020</v>
-      </c>
-      <c r="C644">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A645" t="s">
-        <v>75</v>
-      </c>
-      <c r="B645">
-        <v>2021</v>
-      </c>
-      <c r="C645">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A646" t="s">
-        <v>76</v>
-      </c>
-      <c r="B646">
-        <v>2012</v>
-      </c>
-      <c r="C646">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A647" t="s">
-        <v>76</v>
-      </c>
-      <c r="B647">
-        <v>2013</v>
-      </c>
-      <c r="C647">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A648" t="s">
-        <v>76</v>
-      </c>
-      <c r="B648">
-        <v>2014</v>
-      </c>
-      <c r="C648">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A649" t="s">
-        <v>76</v>
-      </c>
-      <c r="B649">
-        <v>2015</v>
-      </c>
-      <c r="C649">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A650" t="s">
-        <v>76</v>
-      </c>
-      <c r="B650">
-        <v>2016</v>
-      </c>
-      <c r="C650">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A651" t="s">
-        <v>76</v>
-      </c>
-      <c r="B651">
-        <v>2017</v>
-      </c>
-      <c r="C651">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A652" t="s">
-        <v>76</v>
-      </c>
-      <c r="B652">
-        <v>2018</v>
-      </c>
-      <c r="C652">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A653" t="s">
-        <v>76</v>
-      </c>
-      <c r="B653">
-        <v>2019</v>
-      </c>
-      <c r="C653">
         <v>2017</v>
       </c>
     </row>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="80">
   <si>
     <t xml:space="preserve">layer_name</t>
   </si>
@@ -262,6 +262,9 @@
   <si>
     <t xml:space="preserve">ao_rpa</t>
   </si>
+  <si>
+    <t xml:space="preserve">cs_seaweed</t>
+  </si>
 </sst>
 </file>
 
@@ -379,12 +382,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A620" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D672" activeCellId="0" sqref="D672"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A647" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D676" activeCellId="0" sqref="D676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5458,7 +5457,7 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B450" s="0" t="n">
@@ -5634,57 +5633,57 @@
       </c>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B466" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C466" s="5" t="n">
+      <c r="B466" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C466" s="4" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B467" s="6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C467" s="7" t="n">
+      <c r="B467" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C467" s="6" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B468" s="4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C468" s="5" t="n">
+      <c r="B468" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C468" s="4" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B469" s="6" t="n">
+      <c r="B469" s="5" t="n">
         <v>2020</v>
       </c>
-      <c r="C469" s="7" t="n">
+      <c r="C469" s="6" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B470" s="4" t="n">
+      <c r="B470" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="C470" s="5" t="n">
+      <c r="C470" s="4" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -5852,9 +5851,9 @@
       <c r="C485" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="F485" s="3"/>
-      <c r="G485" s="4"/>
-      <c r="H485" s="5"/>
+      <c r="F485" s="2"/>
+      <c r="G485" s="3"/>
+      <c r="H485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
@@ -5866,9 +5865,9 @@
       <c r="C486" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="F486" s="8"/>
-      <c r="G486" s="6"/>
-      <c r="H486" s="7"/>
+      <c r="F486" s="7"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
@@ -5880,9 +5879,9 @@
       <c r="C487" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="F487" s="3"/>
-      <c r="G487" s="4"/>
-      <c r="H487" s="5"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="3"/>
+      <c r="H487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
@@ -5894,9 +5893,9 @@
       <c r="C488" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="F488" s="8"/>
-      <c r="G488" s="6"/>
-      <c r="H488" s="7"/>
+      <c r="F488" s="7"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
@@ -5908,9 +5907,9 @@
       <c r="C489" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="F489" s="3"/>
-      <c r="G489" s="4"/>
-      <c r="H489" s="5"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="3"/>
+      <c r="H489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
@@ -7925,9 +7924,61 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B673" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C673" s="0" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B674" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C674" s="0" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B675" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C675" s="0" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B676" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C676" s="0" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B677" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C677" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="DatosExternos_1" vbProcedure="false">scenario_data_years!$A$1:$C$592</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="DatosExternos_1" vbProcedure="false">scenario_data_years!$A$1:$C$593</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="81">
   <si>
     <t xml:space="preserve">layer_name</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">tr_sustainability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_factor</t>
   </si>
   <si>
     <t xml:space="preserve">wgi_all</t>
@@ -488,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C592" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C592"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C593" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C593"/>
   <tableColumns count="3">
     <tableColumn id="1" name="layer_name"/>
     <tableColumn id="2" name="scenario_year"/>
@@ -505,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A647" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D676" activeCellId="0" sqref="D676"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E579" activeCellId="0" sqref="E579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6945,7 +6948,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
         <v>74</v>
       </c>
@@ -6956,367 +6959,367 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B585" s="0" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C585" s="0" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B586" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C586" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B587" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C587" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B588" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C588" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B589" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C589" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B590" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C590" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B591" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C591" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B592" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C592" s="0" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B593" s="0" t="n">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="C593" s="0" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B594" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C594" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B595" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C595" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B596" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C596" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B597" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C597" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C598" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B599" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C599" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C600" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B601" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C601" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B602" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C602" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B603" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C603" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B604" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C604" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C605" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B606" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C606" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B607" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C607" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B608" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C608" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C609" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B610" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C610" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C611" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C612" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B613" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C613" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C614" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C615" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B616" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C616" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C617" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,274 +7327,274 @@
         <v>77</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>1997</v>
+        <v>2021</v>
       </c>
       <c r="C618" s="0" t="n">
-        <v>1997</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C619" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C620" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C621" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C622" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C623" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C624" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C625" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C626" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C627" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C628" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C629" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B630" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C630" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C631" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C632" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C633" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C634" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C635" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B636" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C636" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C637" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C638" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B639" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C639" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C640" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C641" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C642" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,387 +7602,397 @@
         <v>78</v>
       </c>
       <c r="B643" s="0" t="n">
-        <v>1992</v>
+        <v>2021</v>
       </c>
       <c r="C643" s="0" t="n">
-        <v>1992</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C644" s="0" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C645" s="0" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C646" s="0" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C647" s="0" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C648" s="0" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C649" s="0" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B650" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C650" s="0" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C651" s="0" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C652" s="0" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C653" s="0" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C654" s="0" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C655" s="0" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C656" s="0" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C657" s="0" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B658" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C658" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B659" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C659" s="0" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C660" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B661" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C661" s="0" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B662" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C662" s="0" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C663" s="0" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B664" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C664" s="0" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B665" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C665" s="0" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C666" s="0" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C667" s="0" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C668" s="0" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C669" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C670" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C671" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B672" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C672" s="0" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B673" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="C672" s="0" t="n">
+      <c r="C673" s="0" t="n">
         <v>2021</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B673" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C673" s="0" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C674" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C675" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C676" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B677" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C677" s="0" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B678" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="C677" s="0" t="n">
+      <c r="C678" s="0" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="81">
   <si>
     <t xml:space="preserve">layer_name</t>
   </si>
@@ -508,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E579" activeCellId="0" sqref="E579"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A665" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C679" activeCellId="0" sqref="C679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7990,6 +7990,17 @@
         <v>2021</v>
       </c>
       <c r="C678" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B679" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C679" s="0" t="n">
         <v>2021</v>
       </c>
     </row>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895BE4EA-9124-4CF0-B770-E2C84F00164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB03AE-BE68-4582-AD9A-D41D9D86836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0">scenario_data_years!$A$1:$C$586</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0">scenario_data_years!$A$1:$C$588</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="83">
   <si>
     <t>layer_name</t>
   </si>
@@ -273,6 +273,12 @@
   <si>
     <t>cs_seaweed</t>
   </si>
+  <si>
+    <t>hab_all</t>
+  </si>
+  <si>
+    <t>hab_sup</t>
+  </si>
 </sst>
 </file>
 
@@ -444,8 +450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C586" totalsRowShown="0">
-  <autoFilter ref="A1:C586" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C588" totalsRowShown="0">
+  <autoFilter ref="A1:C588" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="layer_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="scenario_year"/>
@@ -752,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H672"/>
+  <dimension ref="A1:H674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A551" sqref="A551"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,24 +2567,24 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B164">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="C164">
-        <v>2012</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B165">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="C165">
-        <v>2012</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2586,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="B166">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C166">
         <v>2012</v>
@@ -2597,7 +2603,7 @@
         <v>24</v>
       </c>
       <c r="B167">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C167">
         <v>2012</v>
@@ -2608,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="B168">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C168">
         <v>2012</v>
@@ -2619,7 +2625,7 @@
         <v>24</v>
       </c>
       <c r="B169">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C169">
         <v>2012</v>
@@ -2630,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="B170">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C170">
         <v>2012</v>
@@ -2641,7 +2647,7 @@
         <v>24</v>
       </c>
       <c r="B171">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C171">
         <v>2012</v>
@@ -2652,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="B172">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C172">
         <v>2012</v>
@@ -2663,7 +2669,7 @@
         <v>24</v>
       </c>
       <c r="B173">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C173">
         <v>2012</v>
@@ -2674,7 +2680,7 @@
         <v>24</v>
       </c>
       <c r="B174">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C174">
         <v>2012</v>
@@ -2685,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="B175">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C175">
         <v>2012</v>
@@ -2696,7 +2702,7 @@
         <v>24</v>
       </c>
       <c r="B176">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C176">
         <v>2012</v>
@@ -2707,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="B177">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C177">
         <v>2012</v>
@@ -2718,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="B178">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C178">
         <v>2012</v>
@@ -2729,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="B179">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C179">
         <v>2012</v>
@@ -2740,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B180">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C180">
         <v>2012</v>
@@ -2751,7 +2757,7 @@
         <v>24</v>
       </c>
       <c r="B181">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C181">
         <v>2012</v>
@@ -2762,7 +2768,7 @@
         <v>24</v>
       </c>
       <c r="B182">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C182">
         <v>2012</v>
@@ -2773,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B183">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C183">
         <v>2012</v>
@@ -2781,10 +2787,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B184">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C184">
         <v>2012</v>
@@ -2792,10 +2798,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B185">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C185">
         <v>2012</v>
@@ -2806,7 +2812,7 @@
         <v>25</v>
       </c>
       <c r="B186">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C186">
         <v>2012</v>
@@ -2817,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B187">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C187">
         <v>2012</v>
@@ -2828,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="B188">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C188">
         <v>2012</v>
@@ -2839,7 +2845,7 @@
         <v>25</v>
       </c>
       <c r="B189">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C189">
         <v>2012</v>
@@ -2850,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B190">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C190">
         <v>2012</v>
@@ -2861,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="B191">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C191">
         <v>2012</v>
@@ -2869,10 +2875,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B192">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C192">
         <v>2012</v>
@@ -2880,10 +2886,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B193">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C193">
         <v>2012</v>
@@ -2894,7 +2900,7 @@
         <v>26</v>
       </c>
       <c r="B194">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C194">
         <v>2012</v>
@@ -2905,7 +2911,7 @@
         <v>26</v>
       </c>
       <c r="B195">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C195">
         <v>2012</v>
@@ -2916,7 +2922,7 @@
         <v>26</v>
       </c>
       <c r="B196">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C196">
         <v>2012</v>
@@ -2927,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B197">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C197">
         <v>2012</v>
@@ -2938,7 +2944,7 @@
         <v>26</v>
       </c>
       <c r="B198">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C198">
         <v>2012</v>
@@ -2949,7 +2955,7 @@
         <v>26</v>
       </c>
       <c r="B199">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C199">
         <v>2012</v>
@@ -2957,24 +2963,24 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C200">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B201">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C201">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="B202">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C202">
         <v>2015</v>
@@ -2993,7 +2999,7 @@
         <v>27</v>
       </c>
       <c r="B203">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C203">
         <v>2015</v>
@@ -3004,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B204">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C204">
         <v>2015</v>
@@ -3015,7 +3021,7 @@
         <v>27</v>
       </c>
       <c r="B205">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C205">
         <v>2015</v>
@@ -3026,7 +3032,7 @@
         <v>27</v>
       </c>
       <c r="B206">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C206">
         <v>2015</v>
@@ -3037,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B207">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C207">
         <v>2015</v>
@@ -3045,24 +3051,24 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B208">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C208">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C209">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,7 +3076,7 @@
         <v>28</v>
       </c>
       <c r="B210">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C210">
         <v>2012</v>
@@ -3081,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B211">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C211">
         <v>2012</v>
@@ -3092,7 +3098,7 @@
         <v>28</v>
       </c>
       <c r="B212">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C212">
         <v>2012</v>
@@ -3103,7 +3109,7 @@
         <v>28</v>
       </c>
       <c r="B213">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C213">
         <v>2012</v>
@@ -3114,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B214">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -3125,7 +3131,7 @@
         <v>28</v>
       </c>
       <c r="B215">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C215">
         <v>2012</v>
@@ -3133,10 +3139,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B216">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C216">
         <v>2012</v>
@@ -3144,13 +3150,13 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B217">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C217">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="B218">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C218">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3175,10 @@
         <v>29</v>
       </c>
       <c r="B219">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C219">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3186,10 @@
         <v>29</v>
       </c>
       <c r="B220">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C220">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B221">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C221">
         <v>2015</v>
@@ -3202,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="B222">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C222">
         <v>2015</v>
@@ -3213,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="B223">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C223">
         <v>2015</v>
@@ -3221,24 +3227,24 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B224">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C224">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B225">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="C225">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="B226">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C226">
         <v>2012</v>
@@ -3257,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="B227">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C227">
         <v>2012</v>
@@ -3268,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B228">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C228">
         <v>2012</v>
@@ -3279,7 +3285,7 @@
         <v>30</v>
       </c>
       <c r="B229">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C229">
         <v>2012</v>
@@ -3290,7 +3296,7 @@
         <v>30</v>
       </c>
       <c r="B230">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C230">
         <v>2012</v>
@@ -3301,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B231">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C231">
         <v>2012</v>
@@ -3312,7 +3318,7 @@
         <v>30</v>
       </c>
       <c r="B232">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C232">
         <v>2012</v>
@@ -3323,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="B233">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C233">
         <v>2012</v>
@@ -3334,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="B234">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C234">
         <v>2012</v>
@@ -3345,7 +3351,7 @@
         <v>30</v>
       </c>
       <c r="B235">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C235">
         <v>2012</v>
@@ -3356,7 +3362,7 @@
         <v>30</v>
       </c>
       <c r="B236">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C236">
         <v>2012</v>
@@ -3367,7 +3373,7 @@
         <v>30</v>
       </c>
       <c r="B237">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C237">
         <v>2012</v>
@@ -3378,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="B238">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C238">
         <v>2012</v>
@@ -3389,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="B239">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C239">
         <v>2012</v>
@@ -3400,7 +3406,7 @@
         <v>30</v>
       </c>
       <c r="B240">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C240">
         <v>2012</v>
@@ -3411,7 +3417,7 @@
         <v>30</v>
       </c>
       <c r="B241">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C241">
         <v>2012</v>
@@ -3422,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="B242">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C242">
         <v>2012</v>
@@ -3433,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="B243">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C243">
         <v>2012</v>
@@ -3441,10 +3447,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B244">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C244">
         <v>2012</v>
@@ -3452,10 +3458,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B245">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C245">
         <v>2012</v>
@@ -3466,7 +3472,7 @@
         <v>31</v>
       </c>
       <c r="B246">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C246">
         <v>2012</v>
@@ -3477,7 +3483,7 @@
         <v>31</v>
       </c>
       <c r="B247">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C247">
         <v>2012</v>
@@ -3488,7 +3494,7 @@
         <v>31</v>
       </c>
       <c r="B248">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C248">
         <v>2012</v>
@@ -3499,7 +3505,7 @@
         <v>31</v>
       </c>
       <c r="B249">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C249">
         <v>2012</v>
@@ -3510,7 +3516,7 @@
         <v>31</v>
       </c>
       <c r="B250">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C250">
         <v>2012</v>
@@ -3521,7 +3527,7 @@
         <v>31</v>
       </c>
       <c r="B251">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C251">
         <v>2012</v>
@@ -3529,10 +3535,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B252">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C252">
         <v>2012</v>
@@ -3540,10 +3546,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B253">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C253">
         <v>2012</v>
@@ -3554,7 +3560,7 @@
         <v>32</v>
       </c>
       <c r="B254">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C254">
         <v>2012</v>
@@ -3565,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="B255">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C255">
         <v>2012</v>
@@ -3576,7 +3582,7 @@
         <v>32</v>
       </c>
       <c r="B256">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C256">
         <v>2012</v>
@@ -3587,7 +3593,7 @@
         <v>32</v>
       </c>
       <c r="B257">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C257">
         <v>2012</v>
@@ -3598,7 +3604,7 @@
         <v>32</v>
       </c>
       <c r="B258">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C258">
         <v>2012</v>
@@ -3609,7 +3615,7 @@
         <v>32</v>
       </c>
       <c r="B259">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C259">
         <v>2012</v>
@@ -3617,10 +3623,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B260">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C260">
         <v>2012</v>
@@ -3628,10 +3634,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B261">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C261">
         <v>2012</v>
@@ -3642,7 +3648,7 @@
         <v>33</v>
       </c>
       <c r="B262">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C262">
         <v>2012</v>
@@ -3653,7 +3659,7 @@
         <v>33</v>
       </c>
       <c r="B263">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C263">
         <v>2012</v>
@@ -3664,7 +3670,7 @@
         <v>33</v>
       </c>
       <c r="B264">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C264">
         <v>2012</v>
@@ -3675,7 +3681,7 @@
         <v>33</v>
       </c>
       <c r="B265">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C265">
         <v>2012</v>
@@ -3686,7 +3692,7 @@
         <v>33</v>
       </c>
       <c r="B266">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C266">
         <v>2012</v>
@@ -3697,7 +3703,7 @@
         <v>33</v>
       </c>
       <c r="B267">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C267">
         <v>2012</v>
@@ -3705,10 +3711,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B268">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C268">
         <v>2012</v>
@@ -3716,10 +3722,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B269">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C269">
         <v>2012</v>
@@ -3730,7 +3736,7 @@
         <v>34</v>
       </c>
       <c r="B270">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C270">
         <v>2012</v>
@@ -3741,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="B271">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C271">
         <v>2012</v>
@@ -3752,7 +3758,7 @@
         <v>34</v>
       </c>
       <c r="B272">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C272">
         <v>2012</v>
@@ -3763,7 +3769,7 @@
         <v>34</v>
       </c>
       <c r="B273">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C273">
         <v>2012</v>
@@ -3774,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="B274">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C274">
         <v>2012</v>
@@ -3785,7 +3791,7 @@
         <v>34</v>
       </c>
       <c r="B275">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C275">
         <v>2012</v>
@@ -3793,10 +3799,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B276">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C276">
         <v>2012</v>
@@ -3804,10 +3810,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B277">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C277">
         <v>2012</v>
@@ -3818,7 +3824,7 @@
         <v>35</v>
       </c>
       <c r="B278">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C278">
         <v>2012</v>
@@ -3829,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="B279">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C279">
         <v>2012</v>
@@ -3840,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="B280">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C280">
         <v>2012</v>
@@ -3851,7 +3857,7 @@
         <v>35</v>
       </c>
       <c r="B281">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C281">
         <v>2012</v>
@@ -3862,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="B282">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C282">
         <v>2012</v>
@@ -3873,7 +3879,7 @@
         <v>35</v>
       </c>
       <c r="B283">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C283">
         <v>2012</v>
@@ -3881,10 +3887,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B284">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C284">
         <v>2012</v>
@@ -3892,10 +3898,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B285">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C285">
         <v>2012</v>
@@ -3906,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="B286">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C286">
         <v>2012</v>
@@ -3917,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="B287">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C287">
         <v>2012</v>
@@ -3928,7 +3934,7 @@
         <v>36</v>
       </c>
       <c r="B288">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C288">
         <v>2012</v>
@@ -3939,7 +3945,7 @@
         <v>36</v>
       </c>
       <c r="B289">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C289">
         <v>2012</v>
@@ -3950,7 +3956,7 @@
         <v>36</v>
       </c>
       <c r="B290">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C290">
         <v>2012</v>
@@ -3961,7 +3967,7 @@
         <v>36</v>
       </c>
       <c r="B291">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C291">
         <v>2012</v>
@@ -3969,24 +3975,24 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B292">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C292">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B293">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C293">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +4000,7 @@
         <v>37</v>
       </c>
       <c r="B294">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -4005,7 +4011,7 @@
         <v>37</v>
       </c>
       <c r="B295">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C295">
         <v>2017</v>
@@ -4016,7 +4022,7 @@
         <v>37</v>
       </c>
       <c r="B296">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C296">
         <v>2017</v>
@@ -4027,7 +4033,7 @@
         <v>37</v>
       </c>
       <c r="B297">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C297">
         <v>2017</v>
@@ -4038,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="B298">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C298">
         <v>2017</v>
@@ -4049,7 +4055,7 @@
         <v>37</v>
       </c>
       <c r="B299">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C299">
         <v>2017</v>
@@ -4057,24 +4063,24 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B300">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C300">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B301">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C301">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -4082,10 +4088,10 @@
         <v>38</v>
       </c>
       <c r="B302">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C302">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4093,10 +4099,10 @@
         <v>38</v>
       </c>
       <c r="B303">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C303">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,10 +4110,10 @@
         <v>38</v>
       </c>
       <c r="B304">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C304">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4115,10 +4121,10 @@
         <v>38</v>
       </c>
       <c r="B305">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C305">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4126,10 +4132,10 @@
         <v>38</v>
       </c>
       <c r="B306">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C306">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4137,32 +4143,32 @@
         <v>38</v>
       </c>
       <c r="B307">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C307">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B308">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C308">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B309">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C309">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4170,10 +4176,10 @@
         <v>39</v>
       </c>
       <c r="B310">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C310">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4181,10 +4187,10 @@
         <v>39</v>
       </c>
       <c r="B311">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C311">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4192,10 +4198,10 @@
         <v>39</v>
       </c>
       <c r="B312">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C312">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4203,10 +4209,10 @@
         <v>39</v>
       </c>
       <c r="B313">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C313">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4214,10 +4220,10 @@
         <v>39</v>
       </c>
       <c r="B314">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C314">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4225,32 +4231,32 @@
         <v>39</v>
       </c>
       <c r="B315">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C315">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B316">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C316">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B317">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C317">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4258,7 +4264,7 @@
         <v>40</v>
       </c>
       <c r="B318">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C318">
         <v>2012</v>
@@ -4269,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="B319">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C319">
         <v>2012</v>
@@ -4280,7 +4286,7 @@
         <v>40</v>
       </c>
       <c r="B320">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C320">
         <v>2012</v>
@@ -4291,7 +4297,7 @@
         <v>40</v>
       </c>
       <c r="B321">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C321">
         <v>2012</v>
@@ -4302,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B322">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C322">
         <v>2012</v>
@@ -4313,7 +4319,7 @@
         <v>40</v>
       </c>
       <c r="B323">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C323">
         <v>2012</v>
@@ -4321,24 +4327,24 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B324">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C324">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B325">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C325">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4346,10 +4352,10 @@
         <v>41</v>
       </c>
       <c r="B326">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C326">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4357,10 +4363,10 @@
         <v>41</v>
       </c>
       <c r="B327">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C327">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4368,10 +4374,10 @@
         <v>41</v>
       </c>
       <c r="B328">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C328">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4379,10 +4385,10 @@
         <v>41</v>
       </c>
       <c r="B329">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C329">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4390,10 +4396,10 @@
         <v>41</v>
       </c>
       <c r="B330">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C330">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4401,32 +4407,32 @@
         <v>41</v>
       </c>
       <c r="B331">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C331">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B332">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C332">
-        <v>2009</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B333">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C333">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4434,10 +4440,10 @@
         <v>42</v>
       </c>
       <c r="B334">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C334">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4445,10 +4451,10 @@
         <v>42</v>
       </c>
       <c r="B335">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C335">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4456,10 +4462,10 @@
         <v>42</v>
       </c>
       <c r="B336">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C336">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4467,10 +4473,10 @@
         <v>42</v>
       </c>
       <c r="B337">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C337">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4478,10 +4484,10 @@
         <v>42</v>
       </c>
       <c r="B338">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C338">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4489,32 +4495,32 @@
         <v>42</v>
       </c>
       <c r="B339">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C339">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B340">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C340">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B341">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C341">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4522,10 +4528,10 @@
         <v>43</v>
       </c>
       <c r="B342">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C342">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4533,10 +4539,10 @@
         <v>43</v>
       </c>
       <c r="B343">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C343">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4544,10 +4550,10 @@
         <v>43</v>
       </c>
       <c r="B344">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C344">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,10 +4561,10 @@
         <v>43</v>
       </c>
       <c r="B345">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C345">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4566,10 +4572,10 @@
         <v>43</v>
       </c>
       <c r="B346">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C346">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4577,32 +4583,32 @@
         <v>43</v>
       </c>
       <c r="B347">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C347">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B348">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C348">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B349">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C349">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4610,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="B350">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C350">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4621,10 +4627,10 @@
         <v>44</v>
       </c>
       <c r="B351">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C351">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4632,10 +4638,10 @@
         <v>44</v>
       </c>
       <c r="B352">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C352">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4643,10 +4649,10 @@
         <v>44</v>
       </c>
       <c r="B353">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C353">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4654,10 +4660,10 @@
         <v>44</v>
       </c>
       <c r="B354">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C354">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,32 +4671,32 @@
         <v>44</v>
       </c>
       <c r="B355">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C355">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B356">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C356">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B357">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C357">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4698,10 +4704,10 @@
         <v>45</v>
       </c>
       <c r="B358">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C358">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4709,10 +4715,10 @@
         <v>45</v>
       </c>
       <c r="B359">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C359">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4720,10 +4726,10 @@
         <v>45</v>
       </c>
       <c r="B360">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C360">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4731,10 +4737,10 @@
         <v>45</v>
       </c>
       <c r="B361">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C361">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4742,10 +4748,10 @@
         <v>45</v>
       </c>
       <c r="B362">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C362">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4753,32 +4759,32 @@
         <v>45</v>
       </c>
       <c r="B363">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C363">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B364">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C364">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B365">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C365">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4786,7 +4792,7 @@
         <v>46</v>
       </c>
       <c r="B366">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C366">
         <v>2012</v>
@@ -4797,7 +4803,7 @@
         <v>46</v>
       </c>
       <c r="B367">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C367">
         <v>2012</v>
@@ -4808,7 +4814,7 @@
         <v>46</v>
       </c>
       <c r="B368">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C368">
         <v>2012</v>
@@ -4819,7 +4825,7 @@
         <v>46</v>
       </c>
       <c r="B369">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C369">
         <v>2012</v>
@@ -4830,7 +4836,7 @@
         <v>46</v>
       </c>
       <c r="B370">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C370">
         <v>2012</v>
@@ -4841,7 +4847,7 @@
         <v>46</v>
       </c>
       <c r="B371">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C371">
         <v>2012</v>
@@ -4849,24 +4855,24 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B372">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C372">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B373">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C373">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4874,10 +4880,10 @@
         <v>47</v>
       </c>
       <c r="B374">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C374">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4885,10 +4891,10 @@
         <v>47</v>
       </c>
       <c r="B375">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C375">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4896,10 +4902,10 @@
         <v>47</v>
       </c>
       <c r="B376">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C376">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4907,10 +4913,10 @@
         <v>47</v>
       </c>
       <c r="B377">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C377">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4918,10 +4924,10 @@
         <v>47</v>
       </c>
       <c r="B378">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C378">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4929,32 +4935,32 @@
         <v>47</v>
       </c>
       <c r="B379">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C379">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B380">
-        <v>1992</v>
+        <v>2018</v>
       </c>
       <c r="C380">
-        <v>1992</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B381">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="C381">
-        <v>1993</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4962,10 +4968,10 @@
         <v>48</v>
       </c>
       <c r="B382">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C382">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4973,10 +4979,10 @@
         <v>48</v>
       </c>
       <c r="B383">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C383">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4984,10 +4990,10 @@
         <v>48</v>
       </c>
       <c r="B384">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C384">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4995,10 +5001,10 @@
         <v>48</v>
       </c>
       <c r="B385">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C385">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -5006,10 +5012,10 @@
         <v>48</v>
       </c>
       <c r="B386">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C386">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -5017,10 +5023,10 @@
         <v>48</v>
       </c>
       <c r="B387">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C387">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5028,10 +5034,10 @@
         <v>48</v>
       </c>
       <c r="B388">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C388">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5039,10 +5045,10 @@
         <v>48</v>
       </c>
       <c r="B389">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C389">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5050,10 +5056,10 @@
         <v>48</v>
       </c>
       <c r="B390">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C390">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5061,10 +5067,10 @@
         <v>48</v>
       </c>
       <c r="B391">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C391">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5072,10 +5078,10 @@
         <v>48</v>
       </c>
       <c r="B392">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C392">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5083,10 +5089,10 @@
         <v>48</v>
       </c>
       <c r="B393">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C393">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5094,10 +5100,10 @@
         <v>48</v>
       </c>
       <c r="B394">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C394">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5105,10 +5111,10 @@
         <v>48</v>
       </c>
       <c r="B395">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C395">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5116,10 +5122,10 @@
         <v>48</v>
       </c>
       <c r="B396">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C396">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5127,10 +5133,10 @@
         <v>48</v>
       </c>
       <c r="B397">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C397">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5138,10 +5144,10 @@
         <v>48</v>
       </c>
       <c r="B398">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C398">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5149,10 +5155,10 @@
         <v>48</v>
       </c>
       <c r="B399">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C399">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5160,10 +5166,10 @@
         <v>48</v>
       </c>
       <c r="B400">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C400">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5171,10 +5177,10 @@
         <v>48</v>
       </c>
       <c r="B401">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C401">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5182,10 +5188,10 @@
         <v>48</v>
       </c>
       <c r="B402">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C402">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5193,10 +5199,10 @@
         <v>48</v>
       </c>
       <c r="B403">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C403">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5204,10 +5210,10 @@
         <v>48</v>
       </c>
       <c r="B404">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C404">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5215,10 +5221,10 @@
         <v>48</v>
       </c>
       <c r="B405">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C405">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5226,10 +5232,10 @@
         <v>48</v>
       </c>
       <c r="B406">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C406">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5237,32 +5243,32 @@
         <v>48</v>
       </c>
       <c r="B407">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C407">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B408">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C408">
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B409">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C409">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5270,10 +5276,10 @@
         <v>49</v>
       </c>
       <c r="B410">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C410">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5281,10 +5287,10 @@
         <v>49</v>
       </c>
       <c r="B411">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C411">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5292,10 +5298,10 @@
         <v>49</v>
       </c>
       <c r="B412">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C412">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5303,10 +5309,10 @@
         <v>49</v>
       </c>
       <c r="B413">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C413">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5314,10 +5320,10 @@
         <v>49</v>
       </c>
       <c r="B414">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C414">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5325,32 +5331,32 @@
         <v>49</v>
       </c>
       <c r="B415">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C415">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B416">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C416">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B417">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C417">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -5358,10 +5364,10 @@
         <v>50</v>
       </c>
       <c r="B418">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C418">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -5369,7 +5375,7 @@
         <v>50</v>
       </c>
       <c r="B419">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C419">
         <v>2013</v>
@@ -5380,7 +5386,7 @@
         <v>50</v>
       </c>
       <c r="B420">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C420">
         <v>2013</v>
@@ -5391,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="B421">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C421">
         <v>2013</v>
@@ -5402,7 +5408,7 @@
         <v>50</v>
       </c>
       <c r="B422">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C422">
         <v>2013</v>
@@ -5413,7 +5419,7 @@
         <v>50</v>
       </c>
       <c r="B423">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C423">
         <v>2013</v>
@@ -5421,21 +5427,21 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B424">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C424">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B425">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C425">
         <v>2013</v>
@@ -5446,10 +5452,10 @@
         <v>51</v>
       </c>
       <c r="B426">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C426">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5457,7 +5463,7 @@
         <v>51</v>
       </c>
       <c r="B427">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C427">
         <v>2013</v>
@@ -5468,7 +5474,7 @@
         <v>51</v>
       </c>
       <c r="B428">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C428">
         <v>2013</v>
@@ -5479,7 +5485,7 @@
         <v>51</v>
       </c>
       <c r="B429">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C429">
         <v>2013</v>
@@ -5490,7 +5496,7 @@
         <v>51</v>
       </c>
       <c r="B430">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C430">
         <v>2013</v>
@@ -5501,7 +5507,7 @@
         <v>51</v>
       </c>
       <c r="B431">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C431">
         <v>2013</v>
@@ -5509,24 +5515,24 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B432">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C432">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B433">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C433">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5534,10 +5540,10 @@
         <v>52</v>
       </c>
       <c r="B434">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C434">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5545,10 +5551,10 @@
         <v>52</v>
       </c>
       <c r="B435">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C435">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -5556,32 +5562,32 @@
         <v>52</v>
       </c>
       <c r="B436">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C436">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B437">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C437">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B438">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C438">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5589,10 +5595,10 @@
         <v>53</v>
       </c>
       <c r="B439">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C439">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5600,10 +5606,10 @@
         <v>53</v>
       </c>
       <c r="B440">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C440">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5611,32 +5617,32 @@
         <v>53</v>
       </c>
       <c r="B441">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C441">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B442">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C442">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B443">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C443">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5644,10 +5650,10 @@
         <v>54</v>
       </c>
       <c r="B444">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C444">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5655,10 +5661,10 @@
         <v>54</v>
       </c>
       <c r="B445">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C445">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5666,10 +5672,10 @@
         <v>54</v>
       </c>
       <c r="B446">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C446">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5677,10 +5683,10 @@
         <v>54</v>
       </c>
       <c r="B447">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C447">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5688,10 +5694,10 @@
         <v>54</v>
       </c>
       <c r="B448">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C448">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5699,43 +5705,43 @@
         <v>54</v>
       </c>
       <c r="B449">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C449">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B450">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C450">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B451">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C451">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B452">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C452">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5743,10 +5749,10 @@
         <v>56</v>
       </c>
       <c r="B453">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C453">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5754,10 +5760,10 @@
         <v>56</v>
       </c>
       <c r="B454">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C454">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5765,32 +5771,32 @@
         <v>56</v>
       </c>
       <c r="B455">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C455">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B456">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C456">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B457">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C457">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5798,10 +5804,10 @@
         <v>57</v>
       </c>
       <c r="B458">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C458">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5809,10 +5815,10 @@
         <v>57</v>
       </c>
       <c r="B459">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C459">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5820,32 +5826,32 @@
         <v>57</v>
       </c>
       <c r="B460">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C460">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B461">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C461">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B462">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C462">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5853,10 +5859,10 @@
         <v>58</v>
       </c>
       <c r="B463">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C463">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5864,10 +5870,10 @@
         <v>58</v>
       </c>
       <c r="B464">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C464">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5875,31 +5881,31 @@
         <v>58</v>
       </c>
       <c r="B465">
+        <v>2019</v>
+      </c>
+      <c r="C465">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>58</v>
+      </c>
+      <c r="B466">
+        <v>2020</v>
+      </c>
+      <c r="C466">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>58</v>
+      </c>
+      <c r="B467">
         <v>2021</v>
       </c>
-      <c r="C465">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B466" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C466" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B467" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C467" s="5">
+      <c r="C467">
         <v>2021</v>
       </c>
     </row>
@@ -5908,7 +5914,7 @@
         <v>59</v>
       </c>
       <c r="B468" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C468" s="3">
         <v>2021</v>
@@ -5919,7 +5925,7 @@
         <v>59</v>
       </c>
       <c r="B469" s="4">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C469" s="5">
         <v>2021</v>
@@ -5930,32 +5936,32 @@
         <v>59</v>
       </c>
       <c r="B470" s="2">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C470" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>60</v>
-      </c>
-      <c r="B471">
-        <v>2012</v>
-      </c>
-      <c r="C471">
-        <v>2012</v>
+      <c r="A471" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B471" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C471" s="5">
+        <v>2021</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>60</v>
-      </c>
-      <c r="B472">
-        <v>2013</v>
-      </c>
-      <c r="C472">
-        <v>2013</v>
+      <c r="A472" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C472" s="3">
+        <v>2021</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -5963,10 +5969,10 @@
         <v>60</v>
       </c>
       <c r="B473">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C473">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -5974,10 +5980,10 @@
         <v>60</v>
       </c>
       <c r="B474">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C474">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,10 +5991,10 @@
         <v>60</v>
       </c>
       <c r="B475">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C475">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -5996,10 +6002,10 @@
         <v>60</v>
       </c>
       <c r="B476">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C476">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -6007,7 +6013,7 @@
         <v>60</v>
       </c>
       <c r="B477">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C477">
         <v>2016</v>
@@ -6018,7 +6024,7 @@
         <v>60</v>
       </c>
       <c r="B478">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C478">
         <v>2016</v>
@@ -6026,24 +6032,24 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B479">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C479">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B480">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C480">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -6051,10 +6057,10 @@
         <v>61</v>
       </c>
       <c r="B481">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C481">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -6062,10 +6068,10 @@
         <v>61</v>
       </c>
       <c r="B482">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C482">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -6073,10 +6079,10 @@
         <v>61</v>
       </c>
       <c r="B483">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C483">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -6084,10 +6090,10 @@
         <v>61</v>
       </c>
       <c r="B484">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C484">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -6095,38 +6101,32 @@
         <v>61</v>
       </c>
       <c r="B485">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C485">
         <v>2016</v>
       </c>
-      <c r="F485" s="1"/>
-      <c r="G485" s="2"/>
-      <c r="H485" s="3"/>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>61</v>
       </c>
       <c r="B486">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C486">
         <v>2016</v>
       </c>
-      <c r="F486" s="6"/>
-      <c r="G486" s="4"/>
-      <c r="H486" s="5"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B487">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C487">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F487" s="1"/>
       <c r="G487" s="2"/>
@@ -6134,13 +6134,13 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B488">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C488">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="4"/>
@@ -6151,10 +6151,10 @@
         <v>62</v>
       </c>
       <c r="B489">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C489">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
@@ -6165,32 +6165,38 @@
         <v>62</v>
       </c>
       <c r="B490">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C490">
-        <v>2015</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="F490" s="6"/>
+      <c r="G490" s="4"/>
+      <c r="H490" s="5"/>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>62</v>
       </c>
       <c r="B491">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C491">
-        <v>2016</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="F491" s="1"/>
+      <c r="G491" s="2"/>
+      <c r="H491" s="3"/>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>62</v>
       </c>
       <c r="B492">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C492">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -6198,7 +6204,7 @@
         <v>62</v>
       </c>
       <c r="B493">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C493">
         <v>2016</v>
@@ -6209,7 +6215,7 @@
         <v>62</v>
       </c>
       <c r="B494">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C494">
         <v>2016</v>
@@ -6217,24 +6223,24 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B495">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C495">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B496">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C496">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6242,10 +6248,10 @@
         <v>63</v>
       </c>
       <c r="B497">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C497">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,10 +6259,10 @@
         <v>63</v>
       </c>
       <c r="B498">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C498">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,10 +6270,10 @@
         <v>63</v>
       </c>
       <c r="B499">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C499">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,10 +6281,10 @@
         <v>63</v>
       </c>
       <c r="B500">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C500">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,7 +6292,7 @@
         <v>63</v>
       </c>
       <c r="B501">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C501">
         <v>2016</v>
@@ -6297,7 +6303,7 @@
         <v>63</v>
       </c>
       <c r="B502">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C502">
         <v>2016</v>
@@ -6305,24 +6311,24 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B503">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C503">
-        <v>2009</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B504">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C504">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,10 +6336,10 @@
         <v>64</v>
       </c>
       <c r="B505">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C505">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,10 +6347,10 @@
         <v>64</v>
       </c>
       <c r="B506">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C506">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6352,10 +6358,10 @@
         <v>64</v>
       </c>
       <c r="B507">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C507">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,10 +6369,10 @@
         <v>64</v>
       </c>
       <c r="B508">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C508">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,10 +6380,10 @@
         <v>64</v>
       </c>
       <c r="B509">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C509">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6385,18 +6391,18 @@
         <v>64</v>
       </c>
       <c r="B510">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C510">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B511">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C511">
         <v>2015</v>
@@ -6404,10 +6410,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B512">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C512">
         <v>2015</v>
@@ -6418,7 +6424,7 @@
         <v>65</v>
       </c>
       <c r="B513">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C513">
         <v>2015</v>
@@ -6429,7 +6435,7 @@
         <v>65</v>
       </c>
       <c r="B514">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C514">
         <v>2015</v>
@@ -6440,7 +6446,7 @@
         <v>65</v>
       </c>
       <c r="B515">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C515">
         <v>2015</v>
@@ -6451,7 +6457,7 @@
         <v>65</v>
       </c>
       <c r="B516">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C516">
         <v>2015</v>
@@ -6462,7 +6468,7 @@
         <v>65</v>
       </c>
       <c r="B517">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C517">
         <v>2015</v>
@@ -6473,7 +6479,7 @@
         <v>65</v>
       </c>
       <c r="B518">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C518">
         <v>2015</v>
@@ -6481,24 +6487,24 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B519">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C519">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B520">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C520">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,7 +6512,7 @@
         <v>66</v>
       </c>
       <c r="B521">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C521">
         <v>2016</v>
@@ -6517,7 +6523,7 @@
         <v>66</v>
       </c>
       <c r="B522">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C522">
         <v>2016</v>
@@ -6528,7 +6534,7 @@
         <v>66</v>
       </c>
       <c r="B523">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C523">
         <v>2016</v>
@@ -6539,10 +6545,10 @@
         <v>66</v>
       </c>
       <c r="B524">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C524">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6550,10 +6556,10 @@
         <v>66</v>
       </c>
       <c r="B525">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C525">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,32 +6567,32 @@
         <v>66</v>
       </c>
       <c r="B526">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C526">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B527">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C527">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B528">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C528">
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6594,10 +6600,10 @@
         <v>67</v>
       </c>
       <c r="B529">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C529">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6605,10 +6611,10 @@
         <v>67</v>
       </c>
       <c r="B530">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C530">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6616,10 +6622,10 @@
         <v>67</v>
       </c>
       <c r="B531">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C531">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6627,10 +6633,10 @@
         <v>67</v>
       </c>
       <c r="B532">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C532">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6638,10 +6644,10 @@
         <v>67</v>
       </c>
       <c r="B533">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C533">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6649,32 +6655,32 @@
         <v>67</v>
       </c>
       <c r="B534">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C534">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B535">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C535">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B536">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C536">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -6682,10 +6688,10 @@
         <v>68</v>
       </c>
       <c r="B537">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C537">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6693,10 +6699,10 @@
         <v>68</v>
       </c>
       <c r="B538">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C538">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -6704,10 +6710,10 @@
         <v>68</v>
       </c>
       <c r="B539">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C539">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -6715,10 +6721,10 @@
         <v>68</v>
       </c>
       <c r="B540">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C540">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,10 +6732,10 @@
         <v>68</v>
       </c>
       <c r="B541">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C541">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -6737,32 +6743,32 @@
         <v>68</v>
       </c>
       <c r="B542">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C542">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B543">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C543">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B544">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C544">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -6770,10 +6776,10 @@
         <v>69</v>
       </c>
       <c r="B545">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C545">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -6781,10 +6787,10 @@
         <v>69</v>
       </c>
       <c r="B546">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C546">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -6792,10 +6798,10 @@
         <v>69</v>
       </c>
       <c r="B547">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C547">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -6803,10 +6809,10 @@
         <v>69</v>
       </c>
       <c r="B548">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C548">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -6814,10 +6820,10 @@
         <v>69</v>
       </c>
       <c r="B549">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C549">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -6825,43 +6831,43 @@
         <v>69</v>
       </c>
       <c r="B550">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C550">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B551">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C551">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B552">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C552">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B553">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C553">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,7 +6875,7 @@
         <v>71</v>
       </c>
       <c r="B554">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C554">
         <v>2016</v>
@@ -6880,7 +6886,7 @@
         <v>71</v>
       </c>
       <c r="B555">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C555">
         <v>2016</v>
@@ -6891,7 +6897,7 @@
         <v>71</v>
       </c>
       <c r="B556">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C556">
         <v>2016</v>
@@ -6902,10 +6908,10 @@
         <v>71</v>
       </c>
       <c r="B557">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C557">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -6913,10 +6919,10 @@
         <v>71</v>
       </c>
       <c r="B558">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C558">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -6924,32 +6930,32 @@
         <v>71</v>
       </c>
       <c r="B559">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C559">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B560">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C560">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B561">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C561">
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -6957,10 +6963,10 @@
         <v>72</v>
       </c>
       <c r="B562">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C562">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -6968,10 +6974,10 @@
         <v>72</v>
       </c>
       <c r="B563">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C563">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,10 +6985,10 @@
         <v>72</v>
       </c>
       <c r="B564">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C564">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -6990,10 +6996,10 @@
         <v>72</v>
       </c>
       <c r="B565">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C565">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -7001,10 +7007,10 @@
         <v>72</v>
       </c>
       <c r="B566">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C566">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -7012,32 +7018,32 @@
         <v>72</v>
       </c>
       <c r="B567">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C567">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B568">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C568">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B569">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C569">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -7045,10 +7051,10 @@
         <v>73</v>
       </c>
       <c r="B570">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C570">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -7056,10 +7062,10 @@
         <v>73</v>
       </c>
       <c r="B571">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C571">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -7067,29 +7073,29 @@
         <v>73</v>
       </c>
       <c r="B572">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C572">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B573">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C573">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B574">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C574">
         <v>2021</v>
@@ -7100,7 +7106,7 @@
         <v>74</v>
       </c>
       <c r="B575">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C575">
         <v>2021</v>
@@ -7111,7 +7117,7 @@
         <v>74</v>
       </c>
       <c r="B576">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C576">
         <v>2021</v>
@@ -7122,18 +7128,18 @@
         <v>74</v>
       </c>
       <c r="B577">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C577">
         <v>2021</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B578">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C578">
         <v>2021</v>
@@ -7141,24 +7147,24 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B579">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C579">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B580">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C580">
-        <v>2011</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -7166,10 +7172,10 @@
         <v>76</v>
       </c>
       <c r="B581">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C581">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -7177,10 +7183,10 @@
         <v>76</v>
       </c>
       <c r="B582">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C582">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -7188,10 +7194,10 @@
         <v>76</v>
       </c>
       <c r="B583">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C583">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -7199,10 +7205,10 @@
         <v>76</v>
       </c>
       <c r="B584">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C584">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -7210,10 +7216,10 @@
         <v>76</v>
       </c>
       <c r="B585">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C585">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -7221,32 +7227,32 @@
         <v>76</v>
       </c>
       <c r="B586">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C586">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B587">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="C587">
-        <v>1997</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B588">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="C588">
-        <v>1998</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -7254,10 +7260,10 @@
         <v>77</v>
       </c>
       <c r="B589">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C589">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -7265,10 +7271,10 @@
         <v>77</v>
       </c>
       <c r="B590">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C590">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -7276,10 +7282,10 @@
         <v>77</v>
       </c>
       <c r="B591">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C591">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,10 +7293,10 @@
         <v>77</v>
       </c>
       <c r="B592">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C592">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,10 +7304,10 @@
         <v>77</v>
       </c>
       <c r="B593">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C593">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,10 +7315,10 @@
         <v>77</v>
       </c>
       <c r="B594">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C594">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,10 +7326,10 @@
         <v>77</v>
       </c>
       <c r="B595">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C595">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -7331,10 +7337,10 @@
         <v>77</v>
       </c>
       <c r="B596">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C596">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -7342,10 +7348,10 @@
         <v>77</v>
       </c>
       <c r="B597">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C597">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -7353,10 +7359,10 @@
         <v>77</v>
       </c>
       <c r="B598">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C598">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -7364,10 +7370,10 @@
         <v>77</v>
       </c>
       <c r="B599">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C599">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,10 +7381,10 @@
         <v>77</v>
       </c>
       <c r="B600">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C600">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,10 +7392,10 @@
         <v>77</v>
       </c>
       <c r="B601">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C601">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,10 +7403,10 @@
         <v>77</v>
       </c>
       <c r="B602">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C602">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -7408,10 +7414,10 @@
         <v>77</v>
       </c>
       <c r="B603">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C603">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,10 +7425,10 @@
         <v>77</v>
       </c>
       <c r="B604">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C604">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -7430,10 +7436,10 @@
         <v>77</v>
       </c>
       <c r="B605">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C605">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,10 +7447,10 @@
         <v>77</v>
       </c>
       <c r="B606">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C606">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,10 +7458,10 @@
         <v>77</v>
       </c>
       <c r="B607">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C607">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -7463,10 +7469,10 @@
         <v>77</v>
       </c>
       <c r="B608">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C608">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7480,10 @@
         <v>77</v>
       </c>
       <c r="B609">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C609">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -7485,10 +7491,10 @@
         <v>77</v>
       </c>
       <c r="B610">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C610">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -7496,32 +7502,32 @@
         <v>77</v>
       </c>
       <c r="B611">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C611">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B612">
-        <v>1997</v>
+        <v>2020</v>
       </c>
       <c r="C612">
-        <v>1997</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B613">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="C613">
-        <v>1998</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -7529,10 +7535,10 @@
         <v>78</v>
       </c>
       <c r="B614">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C614">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -7540,10 +7546,10 @@
         <v>78</v>
       </c>
       <c r="B615">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C615">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -7551,10 +7557,10 @@
         <v>78</v>
       </c>
       <c r="B616">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C616">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -7562,10 +7568,10 @@
         <v>78</v>
       </c>
       <c r="B617">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C617">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -7573,10 +7579,10 @@
         <v>78</v>
       </c>
       <c r="B618">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C618">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,10 +7590,10 @@
         <v>78</v>
       </c>
       <c r="B619">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C619">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -7595,10 +7601,10 @@
         <v>78</v>
       </c>
       <c r="B620">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C620">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,10 +7612,10 @@
         <v>78</v>
       </c>
       <c r="B621">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C621">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,10 +7623,10 @@
         <v>78</v>
       </c>
       <c r="B622">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C622">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,10 +7634,10 @@
         <v>78</v>
       </c>
       <c r="B623">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C623">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,10 +7645,10 @@
         <v>78</v>
       </c>
       <c r="B624">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C624">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,10 +7656,10 @@
         <v>78</v>
       </c>
       <c r="B625">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C625">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -7661,10 +7667,10 @@
         <v>78</v>
       </c>
       <c r="B626">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C626">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7678,10 @@
         <v>78</v>
       </c>
       <c r="B627">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C627">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,10 +7689,10 @@
         <v>78</v>
       </c>
       <c r="B628">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C628">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -7694,10 +7700,10 @@
         <v>78</v>
       </c>
       <c r="B629">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C629">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7711,10 @@
         <v>78</v>
       </c>
       <c r="B630">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C630">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -7716,10 +7722,10 @@
         <v>78</v>
       </c>
       <c r="B631">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C631">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -7727,10 +7733,10 @@
         <v>78</v>
       </c>
       <c r="B632">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C632">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -7738,10 +7744,10 @@
         <v>78</v>
       </c>
       <c r="B633">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C633">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,10 +7755,10 @@
         <v>78</v>
       </c>
       <c r="B634">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C634">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -7760,10 +7766,10 @@
         <v>78</v>
       </c>
       <c r="B635">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C635">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,32 +7777,32 @@
         <v>78</v>
       </c>
       <c r="B636">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C636">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B637">
-        <v>1992</v>
+        <v>2020</v>
       </c>
       <c r="C637">
-        <v>1992</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B638">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="C638">
-        <v>1993</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -7804,10 +7810,10 @@
         <v>79</v>
       </c>
       <c r="B639">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C639">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -7815,10 +7821,10 @@
         <v>79</v>
       </c>
       <c r="B640">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C640">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -7826,10 +7832,10 @@
         <v>79</v>
       </c>
       <c r="B641">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C641">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -7837,10 +7843,10 @@
         <v>79</v>
       </c>
       <c r="B642">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C642">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -7848,10 +7854,10 @@
         <v>79</v>
       </c>
       <c r="B643">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C643">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -7859,10 +7865,10 @@
         <v>79</v>
       </c>
       <c r="B644">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C644">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -7870,10 +7876,10 @@
         <v>79</v>
       </c>
       <c r="B645">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C645">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -7881,10 +7887,10 @@
         <v>79</v>
       </c>
       <c r="B646">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C646">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -7892,10 +7898,10 @@
         <v>79</v>
       </c>
       <c r="B647">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C647">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,10 +7909,10 @@
         <v>79</v>
       </c>
       <c r="B648">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C648">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -7914,10 +7920,10 @@
         <v>79</v>
       </c>
       <c r="B649">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C649">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -7925,10 +7931,10 @@
         <v>79</v>
       </c>
       <c r="B650">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C650">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,10 +7942,10 @@
         <v>79</v>
       </c>
       <c r="B651">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C651">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +7953,10 @@
         <v>79</v>
       </c>
       <c r="B652">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C652">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -7958,10 +7964,10 @@
         <v>79</v>
       </c>
       <c r="B653">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C653">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -7969,10 +7975,10 @@
         <v>79</v>
       </c>
       <c r="B654">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C654">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,10 +7986,10 @@
         <v>79</v>
       </c>
       <c r="B655">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C655">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -7991,10 +7997,10 @@
         <v>79</v>
       </c>
       <c r="B656">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C656">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -8002,10 +8008,10 @@
         <v>79</v>
       </c>
       <c r="B657">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C657">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -8013,10 +8019,10 @@
         <v>79</v>
       </c>
       <c r="B658">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C658">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -8024,10 +8030,10 @@
         <v>79</v>
       </c>
       <c r="B659">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C659">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,10 +8041,10 @@
         <v>79</v>
       </c>
       <c r="B660">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C660">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -8046,10 +8052,10 @@
         <v>79</v>
       </c>
       <c r="B661">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C661">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,10 +8063,10 @@
         <v>79</v>
       </c>
       <c r="B662">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C662">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -8068,10 +8074,10 @@
         <v>79</v>
       </c>
       <c r="B663">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C663">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -8079,10 +8085,10 @@
         <v>79</v>
       </c>
       <c r="B664">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C664">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,10 +8096,10 @@
         <v>79</v>
       </c>
       <c r="B665">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C665">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -8101,32 +8107,32 @@
         <v>79</v>
       </c>
       <c r="B666">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C666">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B667">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C667">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B668">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C668">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,10 +8140,10 @@
         <v>80</v>
       </c>
       <c r="B669">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C669">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -8145,10 +8151,10 @@
         <v>80</v>
       </c>
       <c r="B670">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C670">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -8156,20 +8162,42 @@
         <v>80</v>
       </c>
       <c r="B671">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C671">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>80</v>
+      </c>
+      <c r="B672">
+        <v>2020</v>
+      </c>
+      <c r="C672">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>80</v>
+      </c>
+      <c r="B673">
+        <v>2021</v>
+      </c>
+      <c r="C673">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
         <v>22</v>
       </c>
-      <c r="B672">
+      <c r="B674">
         <v>2021</v>
       </c>
-      <c r="C672">
+      <c r="C674">
         <v>2021</v>
       </c>
     </row>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\pat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB03AE-BE68-4582-AD9A-D41D9D86836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D853F-E56D-4D15-A632-F6929BC52F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_data_years" sheetId="1" r:id="rId1"/>
@@ -271,13 +271,13 @@
     <t>ao_rpa</t>
   </si>
   <si>
-    <t>cs_seaweed</t>
-  </si>
-  <si>
     <t>hab_all</t>
   </si>
   <si>
     <t>hab_sup</t>
+  </si>
+  <si>
+    <t>cs_kelp_forest</t>
   </si>
 </sst>
 </file>
@@ -760,19 +760,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A664" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A669" sqref="A669:A673"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="4" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -849,7 +849,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -904,7 +904,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -915,7 +915,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -926,7 +926,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -937,7 +937,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -959,7 +959,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -981,7 +981,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -2565,9 +2565,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B164">
         <v>2021</v>
@@ -2576,9 +2576,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B165">
         <v>2021</v>
@@ -2587,7 +2587,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>25</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>25</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>25</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>27</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>27</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>27</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>27</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>28</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>28</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>29</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>29</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>29</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>30</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>30</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>30</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>30</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>31</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>32</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>33</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>33</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>33</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>34</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>34</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>34</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>34</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>34</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>34</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>35</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>35</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>35</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>35</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>35</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>35</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>35</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>36</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>36</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>36</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>36</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>36</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>36</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>36</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>36</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>37</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>37</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>37</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>37</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>38</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>38</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>38</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>38</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>38</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>38</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>38</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>39</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>39</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>39</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>39</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>39</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>39</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>39</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>40</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>40</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>40</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>40</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>40</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>40</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>40</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>40</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>41</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>41</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>41</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>41</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>41</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>42</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>42</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>42</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>42</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>42</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>42</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>42</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>42</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>43</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>43</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>43</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>43</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>43</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>43</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>44</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>44</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>44</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>44</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>44</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>44</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>44</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>45</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>45</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>45</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>45</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>45</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>45</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>45</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>45</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>46</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>46</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>46</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>46</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>46</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>46</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>46</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>46</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>47</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>47</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>47</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>47</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>47</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>47</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>47</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>47</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>48</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>48</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>48</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>48</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>48</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>48</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>48</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>48</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>48</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>48</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>48</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>48</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>48</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>48</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>48</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>48</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>48</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>48</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>48</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>48</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>48</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>48</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>48</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>48</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>48</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>48</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>48</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>49</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>49</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>49</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>49</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>49</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>49</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>49</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>49</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>50</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>50</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>50</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>50</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>50</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>50</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>50</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>50</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>51</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>51</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>51</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>51</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>51</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>51</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>51</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>51</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>52</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>52</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>52</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>52</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>52</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>53</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>53</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>53</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>53</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>53</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>54</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>54</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>54</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>54</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>54</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>54</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>54</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>54</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>55</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>56</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>56</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>56</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>56</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>56</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>57</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>57</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>57</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>57</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>57</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>58</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>58</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>58</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>58</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>58</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" s="1" t="s">
         <v>59</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
         <v>59</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" s="1" t="s">
         <v>59</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
         <v>59</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" s="1" t="s">
         <v>59</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>60</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>60</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>60</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>60</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>60</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>60</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>60</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>60</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>61</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>61</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>61</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>61</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>61</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>61</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>61</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>61</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="G488" s="4"/>
       <c r="H488" s="5"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>62</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>62</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="G490" s="4"/>
       <c r="H490" s="5"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>62</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>62</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>62</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>62</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>62</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>62</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>63</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>63</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>63</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>63</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>63</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>63</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>63</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>63</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>64</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>64</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>64</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>64</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>64</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>64</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>64</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>64</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>65</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>65</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>65</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>65</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>65</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>65</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>65</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>65</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>66</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>66</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>66</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>66</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>66</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>66</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>66</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>66</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>67</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>67</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>67</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>67</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>67</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>67</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>67</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>67</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>68</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>68</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>68</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>68</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>68</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>68</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>68</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>68</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>69</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>69</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>69</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>69</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>69</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>69</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>69</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>69</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>70</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>71</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>71</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>71</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>71</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>71</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>71</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>71</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>71</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>72</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>72</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>72</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>72</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>72</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>72</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>72</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>72</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>73</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>73</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>73</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>73</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>73</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>74</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>74</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>74</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>74</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>74</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>75</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>76</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>76</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>76</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>76</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>76</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>76</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>76</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>76</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>77</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>77</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>77</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>77</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>77</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>77</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>77</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>77</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>77</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>77</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>77</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>77</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>77</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>77</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>77</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>77</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>77</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>77</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>77</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>77</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>77</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>77</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>77</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>77</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>77</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>78</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>78</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>78</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>78</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>78</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>78</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>78</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>78</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>78</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>78</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>78</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>78</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>78</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>78</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>78</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>78</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>78</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>78</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>78</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>78</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>78</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>78</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>78</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>78</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>78</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>79</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>79</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>79</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>79</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>79</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>79</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>79</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>79</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>79</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>79</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>79</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>79</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>79</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>79</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>79</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>79</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>79</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>79</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>79</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>79</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>79</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>79</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>79</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>79</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>79</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>79</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>79</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>79</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>79</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>79</v>
       </c>
@@ -8135,9 +8135,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B669">
         <v>2017</v>
@@ -8146,9 +8146,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B670">
         <v>2018</v>
@@ -8157,9 +8157,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B671">
         <v>2019</v>
@@ -8168,9 +8168,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B672">
         <v>2020</v>
@@ -8179,9 +8179,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B673">
         <v>2021</v>
@@ -8190,7 +8190,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>22</v>
       </c>
@@ -8216,9 +8216,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1025" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D853F-E56D-4D15-A632-F6929BC52F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B49065-7D63-483E-800A-631682AC00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="86">
   <si>
     <t>layer_name</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>cs_kelp_forest</t>
+  </si>
+  <si>
+    <t>cp_habitat</t>
+  </si>
+  <si>
+    <t>cp_habitat_health</t>
+  </si>
+  <si>
+    <t>cp_habitat_trend</t>
   </si>
 </sst>
 </file>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A664" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A669" sqref="A669:A673"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E678" sqref="E678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8198,6 +8207,127 @@
         <v>2021</v>
       </c>
       <c r="C674">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A675" t="s">
+        <v>83</v>
+      </c>
+      <c r="B675">
+        <v>2017</v>
+      </c>
+      <c r="C675">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A676" t="s">
+        <v>83</v>
+      </c>
+      <c r="B676">
+        <v>2018</v>
+      </c>
+      <c r="C676">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A677" t="s">
+        <v>83</v>
+      </c>
+      <c r="B677">
+        <v>2019</v>
+      </c>
+      <c r="C677">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A678" t="s">
+        <v>83</v>
+      </c>
+      <c r="B678">
+        <v>2020</v>
+      </c>
+      <c r="C678">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A679" t="s">
+        <v>83</v>
+      </c>
+      <c r="B679">
+        <v>2021</v>
+      </c>
+      <c r="C679">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A680" t="s">
+        <v>84</v>
+      </c>
+      <c r="B680">
+        <v>2017</v>
+      </c>
+      <c r="C680">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A681" t="s">
+        <v>84</v>
+      </c>
+      <c r="B681">
+        <v>2018</v>
+      </c>
+      <c r="C681">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A682" t="s">
+        <v>84</v>
+      </c>
+      <c r="B682">
+        <v>2019</v>
+      </c>
+      <c r="C682">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A683" t="s">
+        <v>84</v>
+      </c>
+      <c r="B683">
+        <v>2020</v>
+      </c>
+      <c r="C683">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A684" t="s">
+        <v>84</v>
+      </c>
+      <c r="B684">
+        <v>2021</v>
+      </c>
+      <c r="C684">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A685" t="s">
+        <v>85</v>
+      </c>
+      <c r="B685">
+        <v>2021</v>
+      </c>
+      <c r="C685">
         <v>2021</v>
       </c>
     </row>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B49065-7D63-483E-800A-631682AC00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C2E5A-829D-420C-80C2-3F171C38626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +187,6 @@
     <t>liv_trend</t>
   </si>
   <si>
-    <t>lsp_prot_area_inland1km</t>
-  </si>
-  <si>
-    <t>lsp_prot_area_offshore3nm</t>
-  </si>
-  <si>
     <t>mar_harvest_tonnes</t>
   </si>
   <si>
@@ -287,6 +281,12 @@
   </si>
   <si>
     <t>cp_habitat_trend</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_inland1mn</t>
+  </si>
+  <si>
+    <t>lsp_prot_area_offshore3mn</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E678" sqref="E678"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439:A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B164">
         <v>2021</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B165">
         <v>2021</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B434">
         <v>2017</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B435">
         <v>2018</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B436">
         <v>2019</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B437">
         <v>2020</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B438">
         <v>2021</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B439">
         <v>2017</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B440">
         <v>2018</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B441">
         <v>2019</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B442">
         <v>2020</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B443">
         <v>2021</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B444">
         <v>2014</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B445">
         <v>2015</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B446">
         <v>2016</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B447">
         <v>2017</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B448">
         <v>2018</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B449">
         <v>2019</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B450">
         <v>2020</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B451">
         <v>2021</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B452">
         <v>2021</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B453">
         <v>2017</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B454">
         <v>2018</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B455">
         <v>2019</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B456">
         <v>2020</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B457">
         <v>2021</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B458">
         <v>2017</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B459">
         <v>2018</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B460">
         <v>2019</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B461">
         <v>2020</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B462">
         <v>2021</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B463">
         <v>2017</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B464">
         <v>2018</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B465">
         <v>2019</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B466">
         <v>2020</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B467">
         <v>2021</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B468" s="2">
         <v>2017</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B469" s="4">
         <v>2018</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B470" s="2">
         <v>2019</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B471" s="4">
         <v>2020</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B472" s="2">
         <v>2021</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B473">
         <v>2012</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B474">
         <v>2013</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B475">
         <v>2014</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B476">
         <v>2015</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B477">
         <v>2016</v>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B478">
         <v>2017</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B479">
         <v>2018</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B480">
         <v>2019</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B481">
         <v>2012</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B482">
         <v>2013</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B483">
         <v>2014</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B484">
         <v>2015</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B485">
         <v>2016</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B486">
         <v>2017</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B487">
         <v>2018</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B488">
         <v>2019</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B489">
         <v>2012</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B490">
         <v>2013</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B491">
         <v>2014</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B492">
         <v>2015</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B493">
         <v>2016</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B494">
         <v>2017</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B495">
         <v>2018</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B496">
         <v>2019</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B497">
         <v>2012</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B498">
         <v>2013</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B499">
         <v>2014</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B500">
         <v>2015</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B501">
         <v>2016</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B502">
         <v>2017</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B503">
         <v>2018</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B504">
         <v>2019</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B505">
         <v>2012</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B506">
         <v>2013</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B507">
         <v>2014</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B508">
         <v>2015</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B509">
         <v>2016</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B510">
         <v>2017</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B511">
         <v>2018</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B512">
         <v>2019</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B513">
         <v>2012</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B514">
         <v>2013</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B515">
         <v>2014</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B516">
         <v>2015</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B517">
         <v>2016</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B518">
         <v>2017</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B519">
         <v>2018</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B520">
         <v>2019</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B521">
         <v>2012</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B522">
         <v>2013</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B523">
         <v>2014</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B524">
         <v>2015</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B525">
         <v>2016</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B526">
         <v>2017</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B527">
         <v>2018</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B528">
         <v>2019</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B529">
         <v>2012</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B530">
         <v>2013</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B531">
         <v>2014</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B532">
         <v>2015</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B533">
         <v>2016</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B534">
         <v>2017</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B535">
         <v>2018</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B536">
         <v>2019</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B537">
         <v>2012</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B538">
         <v>2013</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B539">
         <v>2014</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B540">
         <v>2015</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B541">
         <v>2016</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B542">
         <v>2017</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B543">
         <v>2018</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B544">
         <v>2019</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B545">
         <v>2012</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B546">
         <v>2013</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B547">
         <v>2014</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B548">
         <v>2015</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B549">
         <v>2016</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B550">
         <v>2017</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B551">
         <v>2018</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B552">
         <v>2019</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B553">
         <v>2021</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B554">
         <v>2012</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B555">
         <v>2013</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B556">
         <v>2014</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B557">
         <v>2015</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B558">
         <v>2016</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B559">
         <v>2017</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B560">
         <v>2018</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B561">
         <v>2019</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B562">
         <v>2012</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B563">
         <v>2013</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B564">
         <v>2014</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B565">
         <v>2015</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B566">
         <v>2016</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B567">
         <v>2017</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B568">
         <v>2018</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B569">
         <v>2019</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B570">
         <v>2017</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B571">
         <v>2018</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B572">
         <v>2019</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B573">
         <v>2020</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B574">
         <v>2021</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B575">
         <v>2017</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B576">
         <v>2018</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B577">
         <v>2019</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B578">
         <v>2020</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B579">
         <v>2021</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="580" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B580">
         <v>2021</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B581">
         <v>2012</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B582">
         <v>2013</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B583">
         <v>2014</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B584">
         <v>2015</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B585">
         <v>2016</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B586">
         <v>2017</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B587">
         <v>2018</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B588">
         <v>2019</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B589">
         <v>1997</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B590">
         <v>1998</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B591">
         <v>1999</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B592">
         <v>2000</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B593">
         <v>2001</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B594">
         <v>2002</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B595">
         <v>2003</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B596">
         <v>2004</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B597">
         <v>2005</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B598">
         <v>2006</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B599">
         <v>2007</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B600">
         <v>2008</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B601">
         <v>2009</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B602">
         <v>2010</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B603">
         <v>2011</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B604">
         <v>2012</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B605">
         <v>2013</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B606">
         <v>2014</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B607">
         <v>2015</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B608">
         <v>2016</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B609">
         <v>2017</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B610">
         <v>2018</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B611">
         <v>2019</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B612">
         <v>2020</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B613">
         <v>2021</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B614">
         <v>1997</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B615">
         <v>1998</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B616">
         <v>1999</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B617">
         <v>2000</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B618">
         <v>2001</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B619">
         <v>2002</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B620">
         <v>2003</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B621">
         <v>2004</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B622">
         <v>2005</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B623">
         <v>2006</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B624">
         <v>2007</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B625">
         <v>2008</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B626">
         <v>2009</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B627">
         <v>2010</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B628">
         <v>2011</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B629">
         <v>2012</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B630">
         <v>2013</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B631">
         <v>2014</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B632">
         <v>2015</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B633">
         <v>2016</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B634">
         <v>2017</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B635">
         <v>2018</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B636">
         <v>2019</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B637">
         <v>2020</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B638">
         <v>2021</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B639">
         <v>1992</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B640">
         <v>1993</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B641">
         <v>1994</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B642">
         <v>1995</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B643">
         <v>1996</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B644">
         <v>1997</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B645">
         <v>1998</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B646">
         <v>1999</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B647">
         <v>2000</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B648">
         <v>2001</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B649">
         <v>2002</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B650">
         <v>2003</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B651">
         <v>2004</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B652">
         <v>2005</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B653">
         <v>2006</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B654">
         <v>2007</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B655">
         <v>2008</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B656">
         <v>2009</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B657">
         <v>2010</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B658">
         <v>2011</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B659">
         <v>2012</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B660">
         <v>2013</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B661">
         <v>2014</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B662">
         <v>2015</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B663">
         <v>2016</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B664">
         <v>2017</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B665">
         <v>2018</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B666">
         <v>2019</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B667">
         <v>2020</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B668">
         <v>2021</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B669">
         <v>2017</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B670">
         <v>2018</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B671">
         <v>2019</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B672">
         <v>2020</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B673">
         <v>2021</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B675">
         <v>2017</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B676">
         <v>2018</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B677">
         <v>2019</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B678">
         <v>2020</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B679">
         <v>2021</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B680">
         <v>2017</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B681">
         <v>2018</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B682">
         <v>2019</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B683">
         <v>2020</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B684">
         <v>2021</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B685">
         <v>2021</v>

--- a/scenario_data.xlsx
+++ b/scenario_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C2E5A-829D-420C-80C2-3F171C38626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C219C4-86E9-402E-8FBA-FC830449B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0">scenario_data_years!$A$1:$C$588</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0">scenario_data_years!$A$1:$C$589</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="87">
   <si>
     <t>layer_name</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>lsp_prot_area_offshore3mn</t>
+  </si>
+  <si>
+    <t>spp_trend</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C588" totalsRowShown="0">
-  <autoFilter ref="A1:C588" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="scenario_data_years" displayName="scenario_data_years" ref="A1:C589" totalsRowShown="0">
+  <autoFilter ref="A1:C589" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="layer_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="scenario_year"/>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H685"/>
+  <dimension ref="A1:H686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:A443"/>
+    <sheetView tabSelected="1" topLeftCell="A543" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6881,13 +6884,13 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B554">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C554">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
@@ -6895,7 +6898,7 @@
         <v>69</v>
       </c>
       <c r="B555">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C555">
         <v>2016</v>
@@ -6906,7 +6909,7 @@
         <v>69</v>
       </c>
       <c r="B556">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C556">
         <v>2016</v>
@@ -6917,7 +6920,7 @@
         <v>69</v>
       </c>
       <c r="B557">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C557">
         <v>2016</v>
@@ -6928,7 +6931,7 @@
         <v>69</v>
       </c>
       <c r="B558">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C558">
         <v>2016</v>
@@ -6939,10 +6942,10 @@
         <v>69</v>
       </c>
       <c r="B559">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C559">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
@@ -6950,10 +6953,10 @@
         <v>69</v>
       </c>
       <c r="B560">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C560">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
@@ -6961,7 +6964,7 @@
         <v>69</v>
       </c>
       <c r="B561">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C561">
         <v>2018</v>
@@ -6969,13 +6972,13 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B562">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C562">
-        <v>2010</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
@@ -6983,10 +6986,10 @@
         <v>70</v>
       </c>
       <c r="B563">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C563">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
@@ -6994,10 +6997,10 @@
         <v>70</v>
       </c>
       <c r="B564">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C564">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
@@ -7005,10 +7008,10 @@
         <v>70</v>
       </c>
       <c r="B565">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C565">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
@@ -7016,10 +7019,10 @@
         <v>70</v>
       </c>
       <c r="B566">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C566">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
@@ -7027,10 +7030,10 @@
         <v>70</v>
       </c>
       <c r="B567">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C567">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
@@ -7038,10 +7041,10 @@
         <v>70</v>
       </c>
       <c r="B568">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C568">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
@@ -7049,18 +7052,18 @@
         <v>70</v>
       </c>
       <c r="B569">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C569">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B570">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C570">
         <v>2017</v>
@@ -7071,10 +7074,10 @@
         <v>71</v>
       </c>
       <c r="B571">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C571">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
@@ -7082,10 +7085,10 @@
         <v>71</v>
       </c>
       <c r="B572">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C572">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
@@ -7093,10 +7096,10 @@
         <v>71</v>
       </c>
       <c r="B573">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C573">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
@@ -7104,18 +7107,18 @@
         <v>71</v>
       </c>
       <c r="B574">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C574">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B575">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C575">
         <v>2021</v>
@@ -7126,7 +7129,7 @@
         <v>72</v>
       </c>
       <c r="B576">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C576">
         <v>2021</v>
@@ -7137,7 +7140,7 @@
         <v>72</v>
       </c>
       <c r="B577">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C577">
         <v>2021</v>
@@ -7148,7 +7151,7 @@
         <v>72</v>
       </c>
       <c r="B578">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C578">
         <v>2021</v>
@@ -7159,15 +7162,15 @@
         <v>72</v>
       </c>
       <c r="B579">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C579">
         <v>2021</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B580">
         <v>2021</v>
@@ -7176,15 +7179,15 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B581">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C581">
-        <v>2010</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
@@ -7192,10 +7195,10 @@
         <v>74</v>
       </c>
       <c r="B582">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C582">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
@@ -7203,10 +7206,10 @@
         <v>74</v>
       </c>
       <c r="B583">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C583">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
@@ -7214,10 +7217,10 @@
         <v>74</v>
       </c>
       <c r="B584">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C584">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
@@ -7225,10 +7228,10 @@
         <v>74</v>
       </c>
       <c r="B585">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C585">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
@@ -7236,10 +7239,10 @@
         <v>74</v>
       </c>
       <c r="B586">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C586">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
@@ -7247,10 +7250,10 @@
         <v>74</v>
       </c>
       <c r="B587">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C587">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
@@ -7258,21 +7261,21 @@
         <v>74</v>
       </c>
       <c r="B588">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C588">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B589">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="C589">
-        <v>1997</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
@@ -7280,10 +7283,10 @@
         <v>75</v>
       </c>
       <c r="B590">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C590">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
@@ -7291,10 +7294,10 @@
         <v>75</v>
       </c>
       <c r="B591">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C591">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
@@ -7302,10 +7305,10 @@
         <v>75</v>
       </c>
       <c r="B592">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C592">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
@@ -7313,10 +7316,10 @@
         <v>75</v>
       </c>
       <c r="B593">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C593">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
@@ -7324,10 +7327,10 @@
         <v>75</v>
       </c>
       <c r="B594">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C594">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
@@ -7335,10 +7338,10 @@
         <v>75</v>
       </c>
       <c r="B595">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C595">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
@@ -7346,10 +7349,10 @@
         <v>75</v>
       </c>
       <c r="B596">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C596">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
@@ -7357,10 +7360,10 @@
         <v>75</v>
       </c>
       <c r="B597">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C597">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
@@ -7368,10 +7371,10 @@
         <v>75</v>
       </c>
       <c r="B598">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C598">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
@@ -7379,10 +7382,10 @@
         <v>75</v>
       </c>
       <c r="B599">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C599">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
@@ -7390,10 +7393,10 @@
         <v>75</v>
       </c>
       <c r="B600">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C600">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
@@ -7401,10 +7404,10 @@
         <v>75</v>
       </c>
       <c r="B601">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C601">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
@@ -7412,10 +7415,10 @@
         <v>75</v>
       </c>
       <c r="B602">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C602">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.45">
@@ -7423,10 +7426,10 @@
         <v>75</v>
       </c>
       <c r="B603">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C603">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.45">
@@ -7434,10 +7437,10 @@
         <v>75</v>
       </c>
       <c r="B604">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C604">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.45">
@@ -7445,10 +7448,10 @@
         <v>75</v>
       </c>
       <c r="B605">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C605">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.45">
@@ -7456,10 +7459,10 @@
         <v>75</v>
       </c>
       <c r="B606">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C606">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.45">
@@ -7467,10 +7470,10 @@
         <v>75</v>
       </c>
       <c r="B607">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C607">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.45">
@@ -7478,10 +7481,10 @@
         <v>75</v>
       </c>
       <c r="B608">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C608">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.45">
@@ -7489,10 +7492,10 @@
         <v>75</v>
       </c>
       <c r="B609">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C609">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.45">
@@ -7500,10 +7503,10 @@
         <v>75</v>
       </c>
       <c r="B610">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C610">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.45">
@@ -7511,10 +7514,10 @@
         <v>75</v>
       </c>
       <c r="B611">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C611">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.45">
@@ -7522,10 +7525,10 @@
         <v>75</v>
       </c>
       <c r="B612">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C612">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.45">
@@ -7533,21 +7536,21 @@
         <v>75</v>
       </c>
       <c r="B613">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C613">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B614">
-        <v>1997</v>
+        <v>2021</v>
       </c>
       <c r="C614">
-        <v>1997</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.45">
@@ -7555,10 +7558,10 @@
         <v>76</v>
       </c>
       <c r="B615">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C615">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.45">
@@ -7566,10 +7569,10 @@
         <v>76</v>
       </c>
       <c r="B616">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C616">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
@@ -7577,10 +7580,10 @@
         <v>76</v>
       </c>
       <c r="B617">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C617">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
@@ -7588,10 +7591,10 @@
         <v>76</v>
       </c>
       <c r="B618">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C618">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.45">
@@ -7599,10 +7602,10 @@
         <v>76</v>
       </c>
       <c r="B619">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C619">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.45">
@@ -7610,10 +7613,10 @@
         <v>76</v>
       </c>
       <c r="B620">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C620">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.45">
@@ -7621,10 +7624,10 @@
         <v>76</v>
       </c>
       <c r="B621">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C621">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.45">
@@ -7632,10 +7635,10 @@
         <v>76</v>
       </c>
       <c r="B622">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C622">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
@@ -7643,10 +7646,10 @@
         <v>76</v>
       </c>
       <c r="B623">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C623">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
@@ -7654,10 +7657,10 @@
         <v>76</v>
       </c>
       <c r="B624">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C624">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
@@ -7665,10 +7668,10 @@
         <v>76</v>
       </c>
       <c r="B625">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C625">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
@@ -7676,10 +7679,10 @@
         <v>76</v>
       </c>
       <c r="B626">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C626">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
@@ -7687,10 +7690,10 @@
         <v>76</v>
       </c>
       <c r="B627">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C627">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
@@ -7698,10 +7701,10 @@
         <v>76</v>
       </c>
       <c r="B628">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C628">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.45">
@@ -7709,10 +7712,10 @@
         <v>76</v>
       </c>
       <c r="B629">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C629">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
@@ -7720,10 +7723,10 @@
         <v>76</v>
       </c>
       <c r="B630">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C630">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
@@ -7731,10 +7734,10 @@
         <v>76</v>
       </c>
       <c r="B631">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C631">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
@@ -7742,10 +7745,10 @@
         <v>76</v>
       </c>
       <c r="B632">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C632">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
@@ -7753,10 +7756,10 @@
         <v>76</v>
       </c>
       <c r="B633">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C633">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
@@ -7764,10 +7767,10 @@
         <v>76</v>
       </c>
       <c r="B634">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C634">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
@@ -7775,10 +7778,10 @@
         <v>76</v>
       </c>
       <c r="B635">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C635">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
@@ -7786,10 +7789,10 @@
         <v>76</v>
       </c>
       <c r="B636">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C636">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
@@ -7797,10 +7800,10 @@
         <v>76</v>
       </c>
       <c r="B637">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C637">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
@@ -7808,21 +7811,21 @@
         <v>76</v>
       </c>
       <c r="B638">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C638">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B639">
-        <v>1992</v>
+        <v>2021</v>
       </c>
       <c r="C639">
-        <v>1992</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
@@ -7830,10 +7833,10 @@
         <v>77</v>
       </c>
       <c r="B640">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C640">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.45">
@@ -7841,10 +7844,10 @@
         <v>77</v>
       </c>
       <c r="B641">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C641">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.45">
@@ -7852,10 +7855,10 @@
         <v>77</v>
       </c>
       <c r="B642">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C642">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.45">
@@ -7863,10 +7866,10 @@
         <v>77</v>
       </c>
       <c r="B643">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C643">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.45">
@@ -7874,10 +7877,10 @@
         <v>77</v>
       </c>
       <c r="B644">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C644">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.45">
@@ -7885,10 +7888,10 @@
         <v>77</v>
       </c>
       <c r="B645">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C645">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.45">
@@ -7896,10 +7899,10 @@
         <v>77</v>
       </c>
       <c r="B646">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C646">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.45">
@@ -7907,10 +7910,10 @@
         <v>77</v>
       </c>
       <c r="B647">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C647">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.45">
@@ -7918,10 +7921,10 @@
         <v>77</v>
       </c>
       <c r="B648">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C648">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.45">
@@ -7929,10 +7932,10 @@
         <v>77</v>
       </c>
       <c r="B649">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C649">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.45">
@@ -7940,10 +7943,10 @@
         <v>77</v>
       </c>
       <c r="B650">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C650">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.45">
@@ -7951,10 +7954,10 @@
         <v>77</v>
       </c>
       <c r="B651">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C651">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.45">
@@ -7962,10 +7965,10 @@
         <v>77</v>
       </c>
       <c r="B652">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C652">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.45">
@@ -7973,10 +7976,10 @@
         <v>77</v>
       </c>
       <c r="B653">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C653">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.45">
@@ -7984,10 +7987,10 @@
         <v>77</v>
       </c>
       <c r="B654">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C654">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.45">
@@ -7995,10 +7998,10 @@
         <v>77</v>
       </c>
       <c r="B655">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C655">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.45">
@@ -8006,10 +8009,10 @@
         <v>77</v>
       </c>
       <c r="B656">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C656">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.45">
@@ -8017,10 +8020,10 @@
         <v>77</v>
       </c>
       <c r="B657">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C657">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.45">
@@ -8028,10 +8031,10 @@
         <v>77</v>
       </c>
       <c r="B658">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C658">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.45">
@@ -8039,10 +8042,10 @@
         <v>77</v>
       </c>
       <c r="B659">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C659">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.45">
@@ -8050,10 +8053,10 @@
         <v>77</v>
       </c>
       <c r="B660">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C660">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.45">
@@ -8061,10 +8064,10 @@
         <v>77</v>
       </c>
       <c r="B661">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C661">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.45">
@@ -8072,10 +8075,10 @@
         <v>77</v>
       </c>
       <c r="B662">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C662">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.45">
@@ -8083,10 +8086,10 @@
         <v>77</v>
       </c>
       <c r="B663">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C663">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.45">
@@ -8094,10 +8097,10 @@
         <v>77</v>
       </c>
       <c r="B664">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C664">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.45">
@@ -8105,10 +8108,10 @@
         <v>77</v>
       </c>
       <c r="B665">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C665">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.45">
@@ -8116,10 +8119,10 @@
         <v>77</v>
       </c>
       <c r="B666">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C666">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.45">
@@ -8127,10 +8130,10 @@
         <v>77</v>
       </c>
       <c r="B667">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C667">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.45">
@@ -8138,21 +8141,21 @@
         <v>77</v>
       </c>
       <c r="B668">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C668">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B669">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C669">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.45">
@@ -8160,10 +8163,10 @@
         <v>80</v>
       </c>
       <c r="B670">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C670">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.45">
@@ -8171,10 +8174,10 @@
         <v>80</v>
       </c>
       <c r="B671">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C671">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.45">
@@ -8182,10 +8185,10 @@
         <v>80</v>
       </c>
       <c r="B672">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C672">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.45">
@@ -8193,15 +8196,15 @@
         <v>80</v>
       </c>
       <c r="B673">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C673">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B674">
         <v>2021</v>
@@ -8212,13 +8215,13 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B675">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C675">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.45">
@@ -8226,10 +8229,10 @@
         <v>81</v>
       </c>
       <c r="B676">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C676">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.45">
@@ -8237,10 +8240,10 @@
         <v>81</v>
       </c>
       <c r="B677">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C677">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.45">
@@ -8248,10 +8251,10 @@
         <v>81</v>
       </c>
       <c r="B678">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C678">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.45">
@@ -8259,21 +8262,21 @@
         <v>81</v>
       </c>
       <c r="B679">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C679">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B680">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C680">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.45">
@@ -8281,10 +8284,10 @@
         <v>82</v>
       </c>
       <c r="B681">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C681">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.45">
@@ -8292,10 +8295,10 @@
         <v>82</v>
       </c>
       <c r="B682">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C682">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.45">
@@ -8303,10 +8306,10 @@
         <v>82</v>
       </c>
       <c r="B683">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C683">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.45">
@@ -8314,20 +8317,31 @@
         <v>82</v>
       </c>
       <c r="B684">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C684">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B685">
         <v>2021</v>
       </c>
       <c r="C685">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A686" t="s">
+        <v>83</v>
+      </c>
+      <c r="B686">
+        <v>2021</v>
+      </c>
+      <c r="C686">
         <v>2021</v>
       </c>
     </row>
